--- a/Project-KTXForecasting/Result/KTXForecasting_20240813_wo일반_KK.xlsx
+++ b/Project-KTXForecasting/Result/KTXForecasting_20240813_wo일반_KK.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C96346-FE99-4579-92E0-5437AAAADC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-24098" yWindow="-83" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
     <sheet name="Forecasting" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -89,15 +95,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -105,8 +111,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,27 +158,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +228,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -237,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -271,9 +297,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,14 +473,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -479,63 +514,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>86931.44041969031</v>
+        <v>86931.440419690305</v>
       </c>
       <c r="D2">
-        <v>116417.6321159313</v>
+        <v>116417.63211593129</v>
       </c>
       <c r="E2">
         <v>107090.21875</v>
       </c>
       <c r="F2">
-        <v>23.18928368492057</v>
+        <v>23.189283684920571</v>
       </c>
       <c r="G2">
-        <v>-8.012028072038813</v>
+        <v>-8.0120280720388131</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>86931.44041969031</v>
-      </c>
-      <c r="D3">
-        <v>116417.6321159313</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="4">
+        <v>86931.440419690305</v>
+      </c>
+      <c r="D3" s="4">
+        <v>116417.63211593129</v>
+      </c>
+      <c r="E3" s="4">
         <v>113044.75</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>30.03897031297198</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>-2.897226180113766</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>101753.1028083028</v>
+        <v>101753.10280830281</v>
       </c>
       <c r="D4">
         <v>136826.8548229548</v>
@@ -544,46 +579,46 @@
         <v>125171.625</v>
       </c>
       <c r="F4">
-        <v>23.0150447950628</v>
+        <v>23.015044795062799</v>
       </c>
       <c r="G4">
-        <v>-8.518232651065427</v>
+        <v>-8.5182326510654267</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>101753.1028083028</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="4">
+        <v>101753.10280830281</v>
+      </c>
+      <c r="D5" s="4">
         <v>136826.8548229548</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>127622.6171875</v>
       </c>
-      <c r="F5">
-        <v>25.42380887188662</v>
-      </c>
-      <c r="G5">
-        <v>-6.726923342179081</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" s="4">
+        <v>25.423808871886621</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-6.7269233421790808</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>79449.39665494392</v>
+        <v>79449.396654943921</v>
       </c>
       <c r="D6">
         <v>108638.1683278867</v>
@@ -595,45 +630,45 @@
         <v>31.75992915924288</v>
       </c>
       <c r="G6">
-        <v>-3.64116924905048</v>
+        <v>-3.6411692490504799</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>79449.39665494392</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="4">
+        <v>79449.396654943921</v>
+      </c>
+      <c r="D7" s="4">
         <v>108638.1683278867</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>108520.6171875</v>
       </c>
-      <c r="F7">
-        <v>36.59086381588909</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="4">
+        <v>36.590863815889087</v>
+      </c>
+      <c r="G7" s="4">
         <v>-0.108204273135315</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>17482.24656304023</v>
+        <v>17482.246563040229</v>
       </c>
       <c r="D8">
         <v>22917.20272525027</v>
@@ -642,7 +677,7 @@
         <v>22511.6328125</v>
       </c>
       <c r="F8">
-        <v>28.76853516122213</v>
+        <v>28.768535161222129</v>
       </c>
       <c r="G8">
         <v>-1.769718222649463</v>
@@ -651,80 +686,80 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>17482.24656304023</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="4">
+        <v>17482.246563040229</v>
+      </c>
+      <c r="D9" s="4">
         <v>22917.20272525027</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>22914.138671875</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>31.07090435572799</v>
       </c>
-      <c r="G9">
-        <v>-0.01337010197975941</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="4">
+        <v>-1.337010197975941E-2</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10">
-        <v>20573.89458874459</v>
+        <v>20573.894588744592</v>
       </c>
       <c r="D10">
-        <v>27464.08461538462</v>
+        <v>27464.084615384621</v>
       </c>
       <c r="E10">
         <v>25804.775390625</v>
       </c>
       <c r="F10">
-        <v>25.42484496222743</v>
+        <v>25.424844962227429</v>
       </c>
       <c r="G10">
-        <v>-6.041742326376753</v>
+        <v>-6.0417423263767533</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
-        <v>20573.89458874459</v>
-      </c>
-      <c r="D11">
-        <v>27464.08461538462</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="4">
+        <v>20573.894588744592</v>
+      </c>
+      <c r="D11" s="4">
+        <v>27464.084615384621</v>
+      </c>
+      <c r="E11" s="4">
         <v>25832.966796875</v>
       </c>
-      <c r="F11">
-        <v>25.56187009438411</v>
-      </c>
-      <c r="G11">
-        <v>-5.939094061762074</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F11" s="4">
+        <v>25.561870094384108</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-5.9390940617620744</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -732,7 +767,7 @@
         <v>15881.24312692382</v>
       </c>
       <c r="D12">
-        <v>20968.02250816994</v>
+        <v>20968.022508169939</v>
       </c>
       <c r="E12">
         <v>20531.744140625</v>
@@ -741,48 +776,48 @@
         <v>29.28297852085073</v>
       </c>
       <c r="G12">
-        <v>-2.080684372476926</v>
+        <v>-2.0806843724769259</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>15881.24312692382</v>
       </c>
-      <c r="D13">
-        <v>20968.02250816994</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="4">
+        <v>20968.022508169939</v>
+      </c>
+      <c r="E13" s="4">
         <v>21996.890625</v>
       </c>
-      <c r="F13">
-        <v>38.50861956585876</v>
-      </c>
-      <c r="G13">
-        <v>4.906843821009721</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F13" s="4">
+        <v>38.508619565858758</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.9068438210097209</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>14696.94857991162</v>
+        <v>14696.948579911619</v>
       </c>
       <c r="D14">
-        <v>19400.05342355704</v>
+        <v>19400.053423557041</v>
       </c>
       <c r="E14">
         <v>18728.8046875</v>
@@ -791,46 +826,46 @@
         <v>27.43328715934463</v>
       </c>
       <c r="G14">
-        <v>-3.460035503005143</v>
+        <v>-3.4600355030051428</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>14696.94857991162</v>
+        <v>14696.948579911619</v>
       </c>
       <c r="D15">
-        <v>19400.05342355704</v>
+        <v>19400.053423557041</v>
       </c>
       <c r="E15">
         <v>20011.884765625</v>
       </c>
       <c r="F15">
-        <v>36.16353528635219</v>
+        <v>36.163535286352193</v>
       </c>
       <c r="G15">
-        <v>3.15376111967316</v>
+        <v>3.1537611196731601</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>16092.96644744145</v>
+        <v>16092.966447441449</v>
       </c>
       <c r="D16">
-        <v>21571.92826617827</v>
+        <v>21571.928266178271</v>
       </c>
       <c r="E16">
         <v>20157.615234375</v>
@@ -839,22 +874,22 @@
         <v>25.25729982852085</v>
       </c>
       <c r="G16">
-        <v>-6.556266154568624</v>
+        <v>-6.5562661545686236</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17">
-        <v>16092.96644744145</v>
+        <v>16092.966447441449</v>
       </c>
       <c r="D17">
-        <v>21571.92826617827</v>
+        <v>21571.928266178271</v>
       </c>
       <c r="E17">
         <v>20365.033203125</v>
@@ -869,8 +904,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -878,13 +913,13 @@
         <v>14297.78181062144</v>
       </c>
       <c r="D18">
-        <v>19100.96074346405</v>
+        <v>19100.960743464049</v>
       </c>
       <c r="E18">
         <v>19435.158203125</v>
       </c>
       <c r="F18">
-        <v>35.93128263215728</v>
+        <v>35.931282632157277</v>
       </c>
       <c r="G18">
         <v>1.749636911720809</v>
@@ -893,8 +928,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
@@ -902,33 +937,33 @@
         <v>14297.78181062144</v>
       </c>
       <c r="D19">
-        <v>19100.96074346405</v>
+        <v>19100.960743464049</v>
       </c>
       <c r="E19">
         <v>20493.123046875</v>
       </c>
       <c r="F19">
-        <v>43.3307859800407</v>
+        <v>43.330785980040702</v>
       </c>
       <c r="G19">
-        <v>7.288441257528455</v>
+        <v>7.2884412575284552</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C20">
-        <v>18998.64500623588</v>
+        <v>18998.645006235882</v>
       </c>
       <c r="D20">
-        <v>25880.34390063033</v>
+        <v>25880.343900630331</v>
       </c>
       <c r="E20">
         <v>24629.599609375</v>
@@ -937,52 +972,52 @@
         <v>29.63871687318165</v>
       </c>
       <c r="G20">
-        <v>-4.832796256717686</v>
+        <v>-4.8327962567176863</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C21">
-        <v>18998.64500623588</v>
+        <v>18998.645006235882</v>
       </c>
       <c r="D21">
-        <v>25880.34390063033</v>
+        <v>25880.343900630331</v>
       </c>
       <c r="E21">
         <v>25816.1328125</v>
       </c>
       <c r="F21">
-        <v>35.88407385909063</v>
+        <v>35.884073859090627</v>
       </c>
       <c r="G21">
-        <v>-0.2481075536587607</v>
+        <v>-0.24810755365876069</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C22">
-        <v>22524.38567543568</v>
+        <v>22524.385675435678</v>
       </c>
       <c r="D22">
-        <v>31093.8206043956</v>
+        <v>31093.820604395602</v>
       </c>
       <c r="E22">
         <v>27443.0703125</v>
       </c>
       <c r="F22">
-        <v>21.83715333212604</v>
+        <v>21.837153332126039</v>
       </c>
       <c r="G22">
         <v>-11.74107980599692</v>
@@ -991,46 +1026,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23">
-        <v>22524.38567543568</v>
+        <v>22524.385675435678</v>
       </c>
       <c r="D23">
-        <v>31093.8206043956</v>
+        <v>31093.820604395602</v>
       </c>
       <c r="E23">
         <v>28563.0546875</v>
       </c>
       <c r="F23">
-        <v>26.80947262703768</v>
+        <v>26.809472627037682</v>
       </c>
       <c r="G23">
-        <v>-8.139128185932343</v>
+        <v>-8.1391281859323428</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C24">
-        <v>17130.05890092306</v>
+        <v>17130.058900923061</v>
       </c>
       <c r="D24">
-        <v>23613.95623638344</v>
+        <v>23613.956236383441</v>
       </c>
       <c r="E24">
         <v>23162.419921875</v>
       </c>
       <c r="F24">
-        <v>35.21506292442975</v>
+        <v>35.215062924429752</v>
       </c>
       <c r="G24">
         <v>-1.912158682723109</v>
@@ -1039,32 +1074,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25">
-        <v>17130.05890092306</v>
+        <v>17130.058900923061</v>
       </c>
       <c r="D25">
-        <v>23613.95623638344</v>
+        <v>23613.956236383441</v>
       </c>
       <c r="E25">
         <v>24346.6015625</v>
       </c>
       <c r="F25">
-        <v>42.12795007487142</v>
+        <v>42.127950074871421</v>
       </c>
       <c r="G25">
-        <v>3.102594579165552</v>
+        <v>3.1025945791655518</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1074,23 +1109,23 @@
         <v>26936.50165584014</v>
       </c>
       <c r="D26">
-        <v>34016.43848720801</v>
+        <v>34016.438487208012</v>
       </c>
       <c r="E26">
         <v>32627.396484375</v>
       </c>
       <c r="F26">
-        <v>21.12707470794006</v>
+        <v>21.127074707940061</v>
       </c>
       <c r="G26">
-        <v>-4.083443372107764</v>
+        <v>-4.0834433721077641</v>
       </c>
       <c r="H26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1098,31 +1133,31 @@
         <v>26936.50165584014</v>
       </c>
       <c r="D27">
-        <v>34016.43848720801</v>
+        <v>34016.438487208012</v>
       </c>
       <c r="E27">
         <v>34233.65625</v>
       </c>
       <c r="F27">
-        <v>27.09020899370485</v>
+        <v>27.090208993704849</v>
       </c>
       <c r="G27">
-        <v>0.6385670353869388</v>
+        <v>0.63856703538693882</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C28">
-        <v>30973.68724053724</v>
+        <v>30973.687240537241</v>
       </c>
       <c r="D28">
-        <v>39428.03696581197</v>
+        <v>39428.036965811967</v>
       </c>
       <c r="E28">
         <v>35669.37109375</v>
@@ -1131,22 +1166,22 @@
         <v>15.16023525628947</v>
       </c>
       <c r="G28">
-        <v>-9.532977447802192</v>
+        <v>-9.5329774478021925</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C29">
-        <v>30973.68724053724</v>
+        <v>30973.687240537241</v>
       </c>
       <c r="D29">
-        <v>39428.03696581197</v>
+        <v>39428.036965811967</v>
       </c>
       <c r="E29">
         <v>37211.1953125</v>
@@ -1155,14 +1190,14 @@
         <v>20.13808696240509</v>
       </c>
       <c r="G29">
-        <v>-5.622500697242905</v>
+        <v>-5.6225006972429048</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
       <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
@@ -1170,7 +1205,7 @@
         <v>25047.52901115625</v>
       </c>
       <c r="D30">
-        <v>32210.27230392157</v>
+        <v>32210.272303921571</v>
       </c>
       <c r="E30">
         <v>28263.81725760772</v>
@@ -1179,14 +1214,14 @@
         <v>12.84074067752918</v>
       </c>
       <c r="G30">
-        <v>-12.25216294068204</v>
+        <v>-12.252162940682039</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1194,16 +1229,16 @@
         <v>25047.52901115625</v>
       </c>
       <c r="D31">
-        <v>32210.27230392157</v>
+        <v>32210.272303921571</v>
       </c>
       <c r="E31">
-        <v>29325.13819169271</v>
+        <v>29325.138191692709</v>
       </c>
       <c r="F31">
         <v>17.07796876343048</v>
       </c>
       <c r="G31">
-        <v>-8.957186344176293</v>
+        <v>-8.9571863441762929</v>
       </c>
       <c r="H31" t="s">
         <v>21</v>
@@ -1217,19 +1252,21 @@
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A31"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1324,7 +1361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>45383</v>
       </c>
@@ -1413,13 +1450,13 @@
         <v>47616.2109375</v>
       </c>
       <c r="AD2">
-        <v>28388.2135519463</v>
+        <v>28388.213551946301</v>
       </c>
       <c r="AE2">
-        <v>28240.0105230133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+        <v>28240.010523013301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>45413</v>
       </c>
@@ -1511,10 +1548,10 @@
         <v>30411.46119401326</v>
       </c>
       <c r="AE3">
-        <v>31817.73050139604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+        <v>31817.730501396039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>45444</v>
       </c>
@@ -1606,10 +1643,10 @@
         <v>30697.17486926735</v>
       </c>
       <c r="AE4">
-        <v>31763.47929838903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>31763.479298389029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>45474</v>
       </c>
@@ -1698,13 +1735,13 @@
         <v>43981.9296875</v>
       </c>
       <c r="AD5">
-        <v>23019.7988987815</v>
+        <v>23019.798898781501</v>
       </c>
       <c r="AE5">
-        <v>24007.83906536025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>24007.839065360251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45505</v>
       </c>
@@ -1799,7 +1836,7 @@
         <v>31789.53128671294</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45536</v>
       </c>
@@ -1891,10 +1928,10 @@
         <v>30697.17486926735</v>
       </c>
       <c r="AE7">
-        <v>31763.47929838903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+        <v>31763.479298389029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>45566</v>
       </c>
@@ -1983,13 +2020,13 @@
         <v>46495.9296875</v>
       </c>
       <c r="AD8">
-        <v>29982.80139803911</v>
+        <v>29982.801398039112</v>
       </c>
       <c r="AE8">
-        <v>31036.62317501665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+        <v>31036.623175016652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>45597</v>
       </c>
@@ -2078,13 +2115,13 @@
         <v>34465.81640625</v>
       </c>
       <c r="AD9">
-        <v>29959.23749636487</v>
+        <v>29959.237496364869</v>
       </c>
       <c r="AE9">
         <v>32053.35626792784</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>45627</v>
       </c>
@@ -2173,13 +2210,13 @@
         <v>41340.01171875</v>
       </c>
       <c r="AD10">
-        <v>29982.80139803911</v>
+        <v>29982.801398039112</v>
       </c>
       <c r="AE10">
-        <v>31036.62317501665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+        <v>31036.623175016652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>45658</v>
       </c>
@@ -2271,10 +2308,10 @@
         <v>30411.46119401326</v>
       </c>
       <c r="AE11">
-        <v>31817.73050139604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
+        <v>31817.730501396039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>45689</v>
       </c>
@@ -2363,13 +2400,13 @@
         <v>36742.23046875</v>
       </c>
       <c r="AD12">
-        <v>29959.23749636487</v>
+        <v>29959.237496364869</v>
       </c>
       <c r="AE12">
         <v>32053.35626792784</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>45717</v>
       </c>
@@ -2458,13 +2495,13 @@
         <v>34296.421875</v>
       </c>
       <c r="AD13">
-        <v>27270.2376720261</v>
+        <v>27270.237672026102</v>
       </c>
       <c r="AE13">
-        <v>28139.29376629468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+        <v>28139.293766294679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>45748</v>
       </c>
@@ -2556,10 +2593,10 @@
         <v>24280.20441304244</v>
       </c>
       <c r="AE14">
-        <v>24062.1201339351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
+        <v>24062.120133935099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>45778</v>
       </c>
@@ -2651,10 +2688,10 @@
         <v>30697.17486926735</v>
       </c>
       <c r="AE15">
-        <v>31763.47929838903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
+        <v>31763.479298389029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>45809</v>
       </c>
@@ -2743,13 +2780,13 @@
         <v>36546.2421875</v>
       </c>
       <c r="AD16">
-        <v>30410.60903831226</v>
+        <v>30410.609038312261</v>
       </c>
       <c r="AE16">
         <v>31684.35459248694</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>45839</v>
       </c>
@@ -2838,13 +2875,13 @@
         <v>42233.625</v>
       </c>
       <c r="AD17">
-        <v>23019.7988987815</v>
+        <v>23019.798898781501</v>
       </c>
       <c r="AE17">
-        <v>24007.83906536025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
+        <v>24007.839065360251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>45870</v>
       </c>
@@ -2933,13 +2970,13 @@
         <v>25372.794921875</v>
       </c>
       <c r="AD18">
-        <v>29959.23749636487</v>
+        <v>29959.237496364869</v>
       </c>
       <c r="AE18">
         <v>32053.35626792784</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>45901</v>
       </c>
@@ -3028,13 +3065,13 @@
         <v>43604.23046875</v>
       </c>
       <c r="AD19">
-        <v>26483.14208594485</v>
+        <v>26483.142085944852</v>
       </c>
       <c r="AE19">
-        <v>26567.8559358584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
+        <v>26567.855935858399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>45931</v>
       </c>
@@ -3126,10 +3163,10 @@
         <v>30411.46119401326</v>
       </c>
       <c r="AE20">
-        <v>31817.73050139604</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
+        <v>31817.730501396039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>45962</v>
       </c>
@@ -3218,13 +3255,13 @@
         <v>33521.84375</v>
       </c>
       <c r="AD21">
-        <v>29959.23749636487</v>
+        <v>29959.237496364869</v>
       </c>
       <c r="AE21">
         <v>32053.35626792784</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>45992</v>
       </c>
@@ -3313,13 +3350,14 @@
         <v>45618.43359375</v>
       </c>
       <c r="AD22">
-        <v>26304.00523679697</v>
+        <v>26304.005236796969</v>
       </c>
       <c r="AE22">
-        <v>25881.18570141247</v>
+        <v>25881.185701412469</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project-KTXForecasting/Result/KTXForecasting_20240813_wo일반_KK.xlsx
+++ b/Project-KTXForecasting/Result/KTXForecasting_20240813_wo일반_KK.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C96346-FE99-4579-92E0-5437AAAADC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24098" yWindow="-83" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Performance" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluation_byYear" sheetId="1" r:id="rId1"/>
     <sheet name="Forecasting" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -95,15 +89,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -111,15 +105,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,39 +145,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,7 +203,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -262,7 +237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -297,10 +271,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,22 +446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -514,63 +479,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>86931.440419690305</v>
+        <v>98668.02204941114</v>
       </c>
       <c r="D2">
-        <v>116417.63211593129</v>
+        <v>116417.6321159313</v>
       </c>
       <c r="E2">
         <v>107090.21875</v>
       </c>
       <c r="F2">
-        <v>23.189283684920571</v>
+        <v>8.535892912063424</v>
       </c>
       <c r="G2">
-        <v>-8.0120280720388131</v>
+        <v>-8.012028072038813</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4">
-        <v>86931.440419690305</v>
-      </c>
-      <c r="D3" s="4">
-        <v>116417.63211593129</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C3">
+        <v>98668.02204941114</v>
+      </c>
+      <c r="D3">
+        <v>116417.6321159313</v>
+      </c>
+      <c r="E3">
         <v>113044.75</v>
       </c>
-      <c r="F3" s="4">
-        <v>30.03897031297198</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3">
+        <v>14.57080789902656</v>
+      </c>
+      <c r="G3">
         <v>-2.897226180113766</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>101753.10280830281</v>
+        <v>117864.1407661783</v>
       </c>
       <c r="D4">
         <v>136826.8548229548</v>
@@ -579,46 +544,46 @@
         <v>125171.625</v>
       </c>
       <c r="F4">
-        <v>23.015044795062799</v>
+        <v>6.199921525172369</v>
       </c>
       <c r="G4">
-        <v>-8.5182326510654267</v>
+        <v>-8.518232651065427</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
-        <v>101753.10280830281</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5">
+        <v>117864.1407661783</v>
+      </c>
+      <c r="D5">
         <v>136826.8548229548</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>127622.6171875</v>
       </c>
-      <c r="F5" s="4">
-        <v>25.423808871886621</v>
-      </c>
-      <c r="G5" s="4">
-        <v>-6.7269233421790808</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="F5">
+        <v>8.279427786845561</v>
+      </c>
+      <c r="G5">
+        <v>-6.726923342179081</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>79449.396654943921</v>
+        <v>89583.37126231003</v>
       </c>
       <c r="D6">
         <v>108638.1683278867</v>
@@ -627,48 +592,48 @@
         <v>104682.46875</v>
       </c>
       <c r="F6">
-        <v>31.75992915924288</v>
+        <v>16.85479936167857</v>
       </c>
       <c r="G6">
-        <v>-3.6411692490504799</v>
+        <v>-3.64116924905048</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
-        <v>79449.396654943921</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7">
+        <v>89583.37126231003</v>
+      </c>
+      <c r="D7">
         <v>108638.1683278867</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>108520.6171875</v>
       </c>
-      <c r="F7" s="4">
-        <v>36.590863815889087</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7">
+        <v>21.1392423151163</v>
+      </c>
+      <c r="G7">
         <v>-0.108204273135315</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>17482.246563040229</v>
+        <v>18161.63999615976</v>
       </c>
       <c r="D8">
         <v>22917.20272525027</v>
@@ -677,7 +642,7 @@
         <v>22511.6328125</v>
       </c>
       <c r="F8">
-        <v>28.768535161222129</v>
+        <v>23.95154191614875</v>
       </c>
       <c r="G8">
         <v>-1.769718222649463</v>
@@ -686,216 +651,216 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
-        <v>17482.246563040229</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9">
+        <v>18161.63999615976</v>
+      </c>
+      <c r="D9">
         <v>22917.20272525027</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>22914.138671875</v>
       </c>
-      <c r="F9" s="4">
-        <v>31.07090435572799</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-1.337010197975941E-2</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="F9">
+        <v>26.16778372834252</v>
+      </c>
+      <c r="G9">
+        <v>-0.01337010197975941</v>
+      </c>
+      <c r="H9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10">
-        <v>20573.894588744592</v>
+        <v>21346.16394993895</v>
       </c>
       <c r="D10">
-        <v>27464.084615384621</v>
+        <v>27464.08461538462</v>
       </c>
       <c r="E10">
         <v>25804.775390625</v>
       </c>
       <c r="F10">
-        <v>25.424844962227429</v>
+        <v>20.88717884460358</v>
       </c>
       <c r="G10">
-        <v>-6.0417423263767533</v>
+        <v>-6.041742326376753</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
-        <v>20573.894588744592</v>
-      </c>
-      <c r="D11" s="4">
-        <v>27464.084615384621</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="C11">
+        <v>21346.16394993895</v>
+      </c>
+      <c r="D11">
+        <v>27464.08461538462</v>
+      </c>
+      <c r="E11">
         <v>25832.966796875</v>
       </c>
-      <c r="F11" s="4">
-        <v>25.561870094384108</v>
-      </c>
-      <c r="G11" s="4">
-        <v>-5.9390940617620744</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="F11">
+        <v>21.01924663119099</v>
+      </c>
+      <c r="G11">
+        <v>-5.939094061762074</v>
+      </c>
+      <c r="H11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>15881.24312692382</v>
+        <v>16757.62377773478</v>
       </c>
       <c r="D12">
-        <v>20968.022508169939</v>
+        <v>20968.02250816994</v>
       </c>
       <c r="E12">
         <v>20531.744140625</v>
       </c>
       <c r="F12">
-        <v>29.28297852085073</v>
+        <v>22.5218110452196</v>
       </c>
       <c r="G12">
-        <v>-2.0806843724769259</v>
+        <v>-2.080684372476926</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4">
-        <v>15881.24312692382</v>
-      </c>
-      <c r="D13" s="4">
-        <v>20968.022508169939</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="C13">
+        <v>16757.62377773478</v>
+      </c>
+      <c r="D13">
+        <v>20968.02250816994</v>
+      </c>
+      <c r="E13">
         <v>21996.890625</v>
       </c>
-      <c r="F13" s="4">
-        <v>38.508619565858758</v>
-      </c>
-      <c r="G13" s="4">
-        <v>4.9068438210097209</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="F13">
+        <v>31.26497477659353</v>
+      </c>
+      <c r="G13">
+        <v>4.906843821009721</v>
+      </c>
+      <c r="H13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>14696.948579911619</v>
+        <v>15462.50268817204</v>
       </c>
       <c r="D14">
-        <v>19400.053423557041</v>
+        <v>19400.05342355704</v>
       </c>
       <c r="E14">
         <v>18728.8046875</v>
       </c>
       <c r="F14">
-        <v>27.43328715934463</v>
+        <v>21.12401895862885</v>
       </c>
       <c r="G14">
-        <v>-3.4600355030051428</v>
+        <v>-3.460035503005143</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>14696.948579911619</v>
+        <v>15462.50268817204</v>
       </c>
       <c r="D15">
-        <v>19400.053423557041</v>
+        <v>19400.05342355704</v>
       </c>
       <c r="E15">
         <v>20011.884765625</v>
       </c>
       <c r="F15">
-        <v>36.163535286352193</v>
+        <v>29.42202933896971</v>
       </c>
       <c r="G15">
-        <v>3.1537611196731601</v>
+        <v>3.15376111967316</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>16092.966447441449</v>
+        <v>17426.95372405372</v>
       </c>
       <c r="D16">
-        <v>21571.928266178271</v>
+        <v>21571.92826617827</v>
       </c>
       <c r="E16">
         <v>20157.615234375</v>
       </c>
       <c r="F16">
-        <v>25.25729982852085</v>
+        <v>15.66918437702771</v>
       </c>
       <c r="G16">
-        <v>-6.5562661545686236</v>
+        <v>-6.556266154568624</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17">
-        <v>16092.966447441449</v>
+        <v>17426.95372405372</v>
       </c>
       <c r="D17">
-        <v>21571.928266178271</v>
+        <v>21571.92826617827</v>
       </c>
       <c r="E17">
         <v>20365.033203125</v>
       </c>
       <c r="F17">
-        <v>26.54617325920508</v>
+        <v>16.85939795097959</v>
       </c>
       <c r="G17">
         <v>-5.59474817531963</v>
@@ -904,22 +869,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C18">
-        <v>14297.78181062144</v>
+        <v>14855.7501574449</v>
       </c>
       <c r="D18">
-        <v>19100.960743464049</v>
+        <v>19100.96074346405</v>
       </c>
       <c r="E18">
         <v>19435.158203125</v>
       </c>
       <c r="F18">
-        <v>35.931282632157277</v>
+        <v>30.8258283637407</v>
       </c>
       <c r="G18">
         <v>1.749636911720809</v>
@@ -928,96 +893,96 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C19">
-        <v>14297.78181062144</v>
+        <v>14855.7501574449</v>
       </c>
       <c r="D19">
-        <v>19100.960743464049</v>
+        <v>19100.96074346405</v>
       </c>
       <c r="E19">
         <v>20493.123046875</v>
       </c>
       <c r="F19">
-        <v>43.330785980040702</v>
+        <v>37.94741315439367</v>
       </c>
       <c r="G19">
-        <v>7.2884412575284552</v>
+        <v>7.288441257528455</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C20">
-        <v>18998.645006235882</v>
+        <v>19088.22789298515</v>
       </c>
       <c r="D20">
-        <v>25880.343900630331</v>
+        <v>25880.34390063033</v>
       </c>
       <c r="E20">
         <v>24629.599609375</v>
       </c>
       <c r="F20">
-        <v>29.63871687318165</v>
+        <v>29.03030992429778</v>
       </c>
       <c r="G20">
-        <v>-4.8327962567176863</v>
+        <v>-4.832796256717686</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C21">
-        <v>18998.645006235882</v>
+        <v>19088.22789298515</v>
       </c>
       <c r="D21">
-        <v>25880.343900630331</v>
+        <v>25880.34390063033</v>
       </c>
       <c r="E21">
         <v>25816.1328125</v>
       </c>
       <c r="F21">
-        <v>35.884073859090627</v>
+        <v>35.24635685006321</v>
       </c>
       <c r="G21">
-        <v>-0.24810755365876069</v>
+        <v>-0.2481075536587607</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C22">
-        <v>22524.385675435678</v>
+        <v>22877.25537240537</v>
       </c>
       <c r="D22">
-        <v>31093.820604395602</v>
+        <v>31093.8206043956</v>
       </c>
       <c r="E22">
         <v>27443.0703125</v>
       </c>
       <c r="F22">
-        <v>21.837153332126039</v>
+        <v>19.95787897529846</v>
       </c>
       <c r="G22">
         <v>-11.74107980599692</v>
@@ -1026,46 +991,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23">
-        <v>22524.385675435678</v>
+        <v>22877.25537240537</v>
       </c>
       <c r="D23">
-        <v>31093.820604395602</v>
+        <v>31093.8206043956</v>
       </c>
       <c r="E23">
         <v>28563.0546875</v>
       </c>
       <c r="F23">
-        <v>26.809472627037682</v>
+        <v>24.85350284611876</v>
       </c>
       <c r="G23">
-        <v>-8.1391281859323428</v>
+        <v>-8.139128185932343</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C24">
-        <v>17130.058900923061</v>
+        <v>17268.89699782466</v>
       </c>
       <c r="D24">
-        <v>23613.956236383441</v>
+        <v>23613.95623638344</v>
       </c>
       <c r="E24">
         <v>23162.419921875</v>
       </c>
       <c r="F24">
-        <v>35.215062924429752</v>
+        <v>34.12796384617234</v>
       </c>
       <c r="G24">
         <v>-1.912158682723109</v>
@@ -1074,171 +1039,171 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25">
-        <v>17130.058900923061</v>
+        <v>17268.89699782466</v>
       </c>
       <c r="D25">
-        <v>23613.956236383441</v>
+        <v>23613.95623638344</v>
       </c>
       <c r="E25">
         <v>24346.6015625</v>
       </c>
       <c r="F25">
-        <v>42.127950074871421</v>
+        <v>40.98527291909211</v>
       </c>
       <c r="G25">
-        <v>3.1025945791655518</v>
+        <v>3.102594579165552</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C26">
-        <v>26936.50165584014</v>
+        <v>29767.72171018945</v>
       </c>
       <c r="D26">
-        <v>34016.438487208012</v>
+        <v>34016.43848720801</v>
       </c>
       <c r="E26">
         <v>32627.396484375</v>
       </c>
       <c r="F26">
-        <v>21.127074707940061</v>
+        <v>9.606629630667008</v>
       </c>
       <c r="G26">
-        <v>-4.0834433721077641</v>
+        <v>-4.083443372107764</v>
       </c>
       <c r="H26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C27">
-        <v>26936.50165584014</v>
+        <v>29767.72171018945</v>
       </c>
       <c r="D27">
-        <v>34016.438487208012</v>
+        <v>34016.43848720801</v>
       </c>
       <c r="E27">
         <v>34233.65625</v>
       </c>
       <c r="F27">
-        <v>27.090208993704849</v>
+        <v>15.00260780213445</v>
       </c>
       <c r="G27">
-        <v>0.63856703538693882</v>
+        <v>0.6385670353869388</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C28">
-        <v>30973.687240537241</v>
+        <v>35248.45895909645</v>
       </c>
       <c r="D28">
-        <v>39428.036965811967</v>
+        <v>39428.03696581197</v>
       </c>
       <c r="E28">
         <v>35669.37109375</v>
       </c>
       <c r="F28">
-        <v>15.16023525628947</v>
+        <v>1.194129182050174</v>
       </c>
       <c r="G28">
-        <v>-9.5329774478021925</v>
+        <v>-9.532977447802192</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="3"/>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C29">
-        <v>30973.687240537241</v>
+        <v>35248.45895909645</v>
       </c>
       <c r="D29">
-        <v>39428.036965811967</v>
+        <v>39428.03696581197</v>
       </c>
       <c r="E29">
         <v>37211.1953125</v>
       </c>
       <c r="F29">
-        <v>20.13808696240509</v>
+        <v>5.568289824191108</v>
       </c>
       <c r="G29">
-        <v>-5.6225006972429048</v>
+        <v>-5.622500697242905</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C30">
-        <v>25047.52901115625</v>
+        <v>27278.02542106586</v>
       </c>
       <c r="D30">
-        <v>32210.272303921571</v>
+        <v>32210.27230392157</v>
       </c>
       <c r="E30">
         <v>28263.81725760772</v>
       </c>
       <c r="F30">
-        <v>12.84074067752918</v>
+        <v>3.61386801766288</v>
       </c>
       <c r="G30">
-        <v>-12.252162940682039</v>
+        <v>-12.25216294068204</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="3"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C31">
-        <v>25047.52901115625</v>
+        <v>27278.02542106586</v>
       </c>
       <c r="D31">
-        <v>32210.272303921571</v>
+        <v>32210.27230392157</v>
       </c>
       <c r="E31">
-        <v>29325.138191692709</v>
+        <v>29325.13819169271</v>
       </c>
       <c r="F31">
-        <v>17.07796876343048</v>
+        <v>7.504622270224615</v>
       </c>
       <c r="G31">
-        <v>-8.9571863441762929</v>
+        <v>-8.957186344176293</v>
       </c>
       <c r="H31" t="s">
         <v>21</v>
@@ -1252,21 +1217,19 @@
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A31"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1361,7 +1324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31">
       <c r="A2" s="2">
         <v>45383</v>
       </c>
@@ -1450,13 +1413,13 @@
         <v>47616.2109375</v>
       </c>
       <c r="AD2">
-        <v>28388.213551946301</v>
+        <v>28388.2135519463</v>
       </c>
       <c r="AE2">
-        <v>28240.010523013301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+        <v>28240.0105230133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="2">
         <v>45413</v>
       </c>
@@ -1548,10 +1511,10 @@
         <v>30411.46119401326</v>
       </c>
       <c r="AE3">
-        <v>31817.730501396039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+        <v>31817.73050139604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="2">
         <v>45444</v>
       </c>
@@ -1643,10 +1606,10 @@
         <v>30697.17486926735</v>
       </c>
       <c r="AE4">
-        <v>31763.479298389029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+        <v>31763.47929838903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="2">
         <v>45474</v>
       </c>
@@ -1735,13 +1698,13 @@
         <v>43981.9296875</v>
       </c>
       <c r="AD5">
-        <v>23019.798898781501</v>
+        <v>23019.7988987815</v>
       </c>
       <c r="AE5">
-        <v>24007.839065360251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+        <v>24007.83906536025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="2">
         <v>45505</v>
       </c>
@@ -1836,7 +1799,7 @@
         <v>31789.53128671294</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31">
       <c r="A7" s="2">
         <v>45536</v>
       </c>
@@ -1928,10 +1891,10 @@
         <v>30697.17486926735</v>
       </c>
       <c r="AE7">
-        <v>31763.479298389029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+        <v>31763.47929838903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="2">
         <v>45566</v>
       </c>
@@ -2020,13 +1983,13 @@
         <v>46495.9296875</v>
       </c>
       <c r="AD8">
-        <v>29982.801398039112</v>
+        <v>29982.80139803911</v>
       </c>
       <c r="AE8">
-        <v>31036.623175016652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+        <v>31036.62317501665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="2">
         <v>45597</v>
       </c>
@@ -2115,13 +2078,13 @@
         <v>34465.81640625</v>
       </c>
       <c r="AD9">
-        <v>29959.237496364869</v>
+        <v>29959.23749636487</v>
       </c>
       <c r="AE9">
         <v>32053.35626792784</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31">
       <c r="A10" s="2">
         <v>45627</v>
       </c>
@@ -2210,13 +2173,13 @@
         <v>41340.01171875</v>
       </c>
       <c r="AD10">
-        <v>29982.801398039112</v>
+        <v>29982.80139803911</v>
       </c>
       <c r="AE10">
-        <v>31036.623175016652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+        <v>31036.62317501665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="2">
         <v>45658</v>
       </c>
@@ -2308,10 +2271,10 @@
         <v>30411.46119401326</v>
       </c>
       <c r="AE11">
-        <v>31817.730501396039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+        <v>31817.73050139604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="2">
         <v>45689</v>
       </c>
@@ -2400,13 +2363,13 @@
         <v>36742.23046875</v>
       </c>
       <c r="AD12">
-        <v>29959.237496364869</v>
+        <v>29959.23749636487</v>
       </c>
       <c r="AE12">
         <v>32053.35626792784</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:31">
       <c r="A13" s="2">
         <v>45717</v>
       </c>
@@ -2495,13 +2458,13 @@
         <v>34296.421875</v>
       </c>
       <c r="AD13">
-        <v>27270.237672026102</v>
+        <v>27270.2376720261</v>
       </c>
       <c r="AE13">
-        <v>28139.293766294679</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+        <v>28139.29376629468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="2">
         <v>45748</v>
       </c>
@@ -2593,10 +2556,10 @@
         <v>24280.20441304244</v>
       </c>
       <c r="AE14">
-        <v>24062.120133935099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+        <v>24062.1201339351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="2">
         <v>45778</v>
       </c>
@@ -2688,10 +2651,10 @@
         <v>30697.17486926735</v>
       </c>
       <c r="AE15">
-        <v>31763.479298389029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
+        <v>31763.47929838903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="2">
         <v>45809</v>
       </c>
@@ -2780,13 +2743,13 @@
         <v>36546.2421875</v>
       </c>
       <c r="AD16">
-        <v>30410.609038312261</v>
+        <v>30410.60903831226</v>
       </c>
       <c r="AE16">
         <v>31684.35459248694</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31">
       <c r="A17" s="2">
         <v>45839</v>
       </c>
@@ -2875,13 +2838,13 @@
         <v>42233.625</v>
       </c>
       <c r="AD17">
-        <v>23019.798898781501</v>
+        <v>23019.7988987815</v>
       </c>
       <c r="AE17">
-        <v>24007.839065360251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+        <v>24007.83906536025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="2">
         <v>45870</v>
       </c>
@@ -2970,13 +2933,13 @@
         <v>25372.794921875</v>
       </c>
       <c r="AD18">
-        <v>29959.237496364869</v>
+        <v>29959.23749636487</v>
       </c>
       <c r="AE18">
         <v>32053.35626792784</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31">
       <c r="A19" s="2">
         <v>45901</v>
       </c>
@@ -3065,13 +3028,13 @@
         <v>43604.23046875</v>
       </c>
       <c r="AD19">
-        <v>26483.142085944852</v>
+        <v>26483.14208594485</v>
       </c>
       <c r="AE19">
-        <v>26567.855935858399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+        <v>26567.8559358584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="2">
         <v>45931</v>
       </c>
@@ -3163,10 +3126,10 @@
         <v>30411.46119401326</v>
       </c>
       <c r="AE20">
-        <v>31817.730501396039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+        <v>31817.73050139604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="2">
         <v>45962</v>
       </c>
@@ -3255,13 +3218,13 @@
         <v>33521.84375</v>
       </c>
       <c r="AD21">
-        <v>29959.237496364869</v>
+        <v>29959.23749636487</v>
       </c>
       <c r="AE21">
         <v>32053.35626792784</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31">
       <c r="A22" s="2">
         <v>45992</v>
       </c>
@@ -3350,14 +3313,13 @@
         <v>45618.43359375</v>
       </c>
       <c r="AD22">
-        <v>26304.005236796969</v>
+        <v>26304.00523679697</v>
       </c>
       <c r="AE22">
-        <v>25881.185701412469</v>
+        <v>25881.18570141247</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project-KTXForecasting/Result/KTXForecasting_20240813_wo일반_KK.xlsx
+++ b/Project-KTXForecasting/Result/KTXForecasting_20240813_wo일반_KK.xlsx
@@ -493,13 +493,13 @@
         <v>116417.6321159313</v>
       </c>
       <c r="E2">
-        <v>107090.21875</v>
+        <v>106868.125</v>
       </c>
       <c r="F2">
-        <v>8.535892912063424</v>
+        <v>8.310800987256428</v>
       </c>
       <c r="G2">
-        <v>-8.012028072038813</v>
+        <v>-8.202801364677892</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -517,13 +517,13 @@
         <v>116417.6321159313</v>
       </c>
       <c r="E3">
-        <v>113044.75</v>
+        <v>113469.28125</v>
       </c>
       <c r="F3">
-        <v>14.57080789902656</v>
+        <v>15.0010701473033</v>
       </c>
       <c r="G3">
-        <v>-2.897226180113766</v>
+        <v>-2.532563849946079</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -541,13 +541,13 @@
         <v>136826.8548229548</v>
       </c>
       <c r="E4">
-        <v>125171.625</v>
+        <v>124735.5859375</v>
       </c>
       <c r="F4">
-        <v>6.199921525172369</v>
+        <v>5.829970953551933</v>
       </c>
       <c r="G4">
-        <v>-8.518232651065427</v>
+        <v>-8.836912096751881</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -565,13 +565,13 @@
         <v>136826.8548229548</v>
       </c>
       <c r="E5">
-        <v>127622.6171875</v>
+        <v>128220.2109375</v>
       </c>
       <c r="F5">
-        <v>8.279427786845561</v>
+        <v>8.786446924401181</v>
       </c>
       <c r="G5">
-        <v>-6.726923342179081</v>
+        <v>-6.290171543145739</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -583,19 +583,19 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>89583.37126231003</v>
+        <v>89181.44969368259</v>
       </c>
       <c r="D6">
-        <v>108638.1683278867</v>
+        <v>107327.4488834423</v>
       </c>
       <c r="E6">
-        <v>104682.46875</v>
+        <v>104357.5390625</v>
       </c>
       <c r="F6">
-        <v>16.85479936167857</v>
+        <v>17.01709203084691</v>
       </c>
       <c r="G6">
-        <v>-3.64116924905048</v>
+        <v>-2.767148433917954</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
@@ -607,19 +607,19 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>89583.37126231003</v>
+        <v>89181.44969368259</v>
       </c>
       <c r="D7">
-        <v>108638.1683278867</v>
+        <v>107327.4488834423</v>
       </c>
       <c r="E7">
-        <v>108520.6171875</v>
+        <v>108572.40625</v>
       </c>
       <c r="F7">
-        <v>21.1392423151163</v>
+        <v>21.74326232968941</v>
       </c>
       <c r="G7">
-        <v>-0.108204273135315</v>
+        <v>1.159961761422057</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -639,13 +639,13 @@
         <v>22917.20272525027</v>
       </c>
       <c r="E8">
-        <v>22511.6328125</v>
+        <v>22482.078125</v>
       </c>
       <c r="F8">
-        <v>23.95154191614875</v>
+        <v>23.78881053557822</v>
       </c>
       <c r="G8">
-        <v>-1.769718222649463</v>
+        <v>-1.898681115085876</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -663,13 +663,13 @@
         <v>22917.20272525027</v>
       </c>
       <c r="E9">
-        <v>22914.138671875</v>
+        <v>22943.212890625</v>
       </c>
       <c r="F9">
-        <v>26.16778372834252</v>
+        <v>26.32786959479592</v>
       </c>
       <c r="G9">
-        <v>-0.01337010197975941</v>
+        <v>0.11349624858914</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -687,13 +687,13 @@
         <v>27464.08461538462</v>
       </c>
       <c r="E10">
-        <v>25804.775390625</v>
+        <v>25695.4453125</v>
       </c>
       <c r="F10">
-        <v>20.88717884460358</v>
+        <v>20.37500214446486</v>
       </c>
       <c r="G10">
-        <v>-6.041742326376753</v>
+        <v>-6.439826149872385</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -711,13 +711,13 @@
         <v>27464.08461538462</v>
       </c>
       <c r="E11">
-        <v>25832.966796875</v>
+        <v>26030.689453125</v>
       </c>
       <c r="F11">
-        <v>21.01924663119099</v>
+        <v>21.94551449230973</v>
       </c>
       <c r="G11">
-        <v>-5.939094061762074</v>
+        <v>-5.219162343596439</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -729,19 +729,19 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>16757.62377773478</v>
+        <v>16682.01430061059</v>
       </c>
       <c r="D12">
-        <v>20968.02250816994</v>
+        <v>20713.37875816993</v>
       </c>
       <c r="E12">
-        <v>20531.744140625</v>
+        <v>20575.037109375</v>
       </c>
       <c r="F12">
-        <v>22.5218110452196</v>
+        <v>23.3366471135438</v>
       </c>
       <c r="G12">
-        <v>-2.080684372476926</v>
+        <v>-0.6678854783185306</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
@@ -753,19 +753,19 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>16757.62377773478</v>
+        <v>16682.01430061059</v>
       </c>
       <c r="D13">
-        <v>20968.02250816994</v>
+        <v>20713.37875816993</v>
       </c>
       <c r="E13">
-        <v>21996.890625</v>
+        <v>21752.029296875</v>
       </c>
       <c r="F13">
-        <v>31.26497477659353</v>
+        <v>30.39210316513656</v>
       </c>
       <c r="G13">
-        <v>4.906843821009721</v>
+        <v>5.014394565132907</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -785,13 +785,13 @@
         <v>19400.05342355704</v>
       </c>
       <c r="E14">
-        <v>18728.8046875</v>
+        <v>18804.283203125</v>
       </c>
       <c r="F14">
-        <v>21.12401895862885</v>
+        <v>21.61215802089551</v>
       </c>
       <c r="G14">
-        <v>-3.460035503005143</v>
+        <v>-3.070972060873856</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -809,13 +809,13 @@
         <v>19400.05342355704</v>
       </c>
       <c r="E15">
-        <v>20011.884765625</v>
+        <v>20001.3515625</v>
       </c>
       <c r="F15">
-        <v>29.42202933896971</v>
+        <v>29.35390839284979</v>
       </c>
       <c r="G15">
-        <v>3.15376111967316</v>
+        <v>3.099466407720408</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
@@ -833,13 +833,13 @@
         <v>21571.92826617827</v>
       </c>
       <c r="E16">
-        <v>20157.615234375</v>
+        <v>20225.931640625</v>
       </c>
       <c r="F16">
-        <v>15.66918437702771</v>
+        <v>16.06120014370589</v>
       </c>
       <c r="G16">
-        <v>-6.556266154568624</v>
+        <v>-6.239574918592695</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -857,13 +857,13 @@
         <v>21571.92826617827</v>
       </c>
       <c r="E17">
-        <v>20365.033203125</v>
+        <v>20397.107421875</v>
       </c>
       <c r="F17">
-        <v>16.85939795097959</v>
+        <v>17.04344743695332</v>
       </c>
       <c r="G17">
-        <v>-5.59474817531963</v>
+        <v>-5.446063188265004</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
@@ -875,19 +875,19 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>14855.7501574449</v>
+        <v>14790.87107247757</v>
       </c>
       <c r="D18">
-        <v>19100.96074346405</v>
+        <v>18869.65588235294</v>
       </c>
       <c r="E18">
-        <v>19435.158203125</v>
+        <v>19464.298828125</v>
       </c>
       <c r="F18">
-        <v>30.8258283637407</v>
+        <v>31.59670402606378</v>
       </c>
       <c r="G18">
-        <v>1.749636911720809</v>
+        <v>3.151318442050521</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
@@ -899,19 +899,19 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>14855.7501574449</v>
+        <v>14790.87107247757</v>
       </c>
       <c r="D19">
-        <v>19100.96074346405</v>
+        <v>18869.65588235294</v>
       </c>
       <c r="E19">
-        <v>20493.123046875</v>
+        <v>20422.470703125</v>
       </c>
       <c r="F19">
-        <v>37.94741315439367</v>
+        <v>38.07483415311857</v>
       </c>
       <c r="G19">
-        <v>7.288441257528455</v>
+        <v>8.229163427533749</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
@@ -931,13 +931,13 @@
         <v>25880.34390063033</v>
       </c>
       <c r="E20">
-        <v>24629.599609375</v>
+        <v>24614.802734375</v>
       </c>
       <c r="F20">
-        <v>29.03030992429778</v>
+        <v>28.95279159686082</v>
       </c>
       <c r="G20">
-        <v>-4.832796256717686</v>
+        <v>-4.88997043901146</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -955,13 +955,13 @@
         <v>25880.34390063033</v>
       </c>
       <c r="E21">
-        <v>25816.1328125</v>
+        <v>25959.791015625</v>
       </c>
       <c r="F21">
-        <v>35.24635685006321</v>
+        <v>35.99895789784193</v>
       </c>
       <c r="G21">
-        <v>-0.2481075536587607</v>
+        <v>0.306978590778062</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -979,13 +979,13 @@
         <v>31093.8206043956</v>
       </c>
       <c r="E22">
-        <v>27443.0703125</v>
+        <v>27379.205078125</v>
       </c>
       <c r="F22">
-        <v>19.95787897529846</v>
+        <v>19.67871421827068</v>
       </c>
       <c r="G22">
-        <v>-11.74107980599692</v>
+        <v>-11.94647506825032</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
@@ -1003,13 +1003,13 @@
         <v>31093.8206043956</v>
       </c>
       <c r="E23">
-        <v>28563.0546875</v>
+        <v>28620.345703125</v>
       </c>
       <c r="F23">
-        <v>24.85350284611876</v>
+        <v>25.10393068237968</v>
       </c>
       <c r="G23">
-        <v>-8.139128185932343</v>
+        <v>-7.954876091749686</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
@@ -1021,19 +1021,19 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>17268.89699782466</v>
+        <v>17190.30658388131</v>
       </c>
       <c r="D24">
-        <v>23613.95623638344</v>
+        <v>23318.86109749455</v>
       </c>
       <c r="E24">
-        <v>23162.419921875</v>
+        <v>22752.5390625</v>
       </c>
       <c r="F24">
-        <v>34.12796384617234</v>
+        <v>32.35679626467039</v>
       </c>
       <c r="G24">
-        <v>-1.912158682723109</v>
+        <v>-2.428600747810106</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
@@ -1045,19 +1045,19 @@
         <v>15</v>
       </c>
       <c r="C25">
-        <v>17268.89699782466</v>
+        <v>17190.30658388131</v>
       </c>
       <c r="D25">
-        <v>23613.95623638344</v>
+        <v>23318.86109749455</v>
       </c>
       <c r="E25">
-        <v>24346.6015625</v>
+        <v>24210.28125</v>
       </c>
       <c r="F25">
-        <v>40.98527291909211</v>
+        <v>40.83682063414189</v>
       </c>
       <c r="G25">
-        <v>3.102594579165552</v>
+        <v>3.822743095293046</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
@@ -1077,13 +1077,13 @@
         <v>34016.43848720801</v>
       </c>
       <c r="E26">
-        <v>32627.396484375</v>
+        <v>32800.109375</v>
       </c>
       <c r="F26">
-        <v>9.606629630667008</v>
+        <v>10.18683154301516</v>
       </c>
       <c r="G26">
-        <v>-4.083443372107764</v>
+        <v>-3.575709763576262</v>
       </c>
       <c r="H26" t="s">
         <v>19</v>
@@ -1101,13 +1101,13 @@
         <v>34016.43848720801</v>
       </c>
       <c r="E27">
-        <v>34233.65625</v>
+        <v>34290.34765625</v>
       </c>
       <c r="F27">
-        <v>15.00260780213445</v>
+        <v>15.19305370458521</v>
       </c>
       <c r="G27">
-        <v>0.6385670353869388</v>
+        <v>0.8052258884921004</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
@@ -1125,13 +1125,13 @@
         <v>39428.03696581197</v>
       </c>
       <c r="E28">
-        <v>35669.37109375</v>
+        <v>35923.3125</v>
       </c>
       <c r="F28">
-        <v>1.194129182050174</v>
+        <v>1.914561830026873</v>
       </c>
       <c r="G28">
-        <v>-9.532977447802192</v>
+        <v>-8.888914426175754</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
@@ -1149,13 +1149,13 @@
         <v>39428.03696581197</v>
       </c>
       <c r="E29">
-        <v>37211.1953125</v>
+        <v>37899.31640625</v>
       </c>
       <c r="F29">
-        <v>5.568289824191108</v>
+        <v>7.520491747539082</v>
       </c>
       <c r="G29">
-        <v>-5.622500697242905</v>
+        <v>-3.87724238182976</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
@@ -1167,19 +1167,19 @@
         <v>15</v>
       </c>
       <c r="C30">
-        <v>27278.02542106586</v>
+        <v>27157.39442978046</v>
       </c>
       <c r="D30">
-        <v>32210.27230392157</v>
+        <v>31817.31952614379</v>
       </c>
       <c r="E30">
-        <v>28263.81725760772</v>
+        <v>28320.77371924644</v>
       </c>
       <c r="F30">
-        <v>3.61386801766288</v>
+        <v>4.283839867164252</v>
       </c>
       <c r="G30">
-        <v>-12.25216294068204</v>
+        <v>-10.98944178507652</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
@@ -1191,19 +1191,19 @@
         <v>15</v>
       </c>
       <c r="C31">
-        <v>27278.02542106586</v>
+        <v>27157.39442978046</v>
       </c>
       <c r="D31">
-        <v>32210.27230392157</v>
+        <v>31817.31952614379</v>
       </c>
       <c r="E31">
-        <v>29325.13819169271</v>
+        <v>29136.81636559423</v>
       </c>
       <c r="F31">
-        <v>7.504622270224615</v>
+        <v>7.288703417155373</v>
       </c>
       <c r="G31">
-        <v>-8.957186344176293</v>
+        <v>-8.424666818168113</v>
       </c>
       <c r="H31" t="s">
         <v>21</v>
@@ -1329,94 +1329,94 @@
         <v>45383</v>
       </c>
       <c r="B2">
-        <v>116599.28125</v>
+        <v>115906.2890625</v>
       </c>
       <c r="C2">
-        <v>114064.5390625</v>
+        <v>114146.25</v>
       </c>
       <c r="D2">
-        <v>157901.6875</v>
+        <v>160032.90625</v>
       </c>
       <c r="E2">
-        <v>153522.515625</v>
+        <v>154024.90625</v>
       </c>
       <c r="F2">
-        <v>93083.6796875</v>
+        <v>92869.4609375</v>
       </c>
       <c r="G2">
-        <v>99037.140625</v>
+        <v>98422.5</v>
       </c>
       <c r="H2">
-        <v>23305.439453125</v>
+        <v>23379.4609375</v>
       </c>
       <c r="I2">
-        <v>23745.703125</v>
+        <v>23742.509765625</v>
       </c>
       <c r="J2">
-        <v>31831.57421875</v>
+        <v>31740.990234375</v>
       </c>
       <c r="K2">
-        <v>31652.875</v>
+        <v>32145.46875</v>
       </c>
       <c r="L2">
-        <v>18030.4921875</v>
+        <v>18022.734375</v>
       </c>
       <c r="M2">
-        <v>18955.48046875</v>
+        <v>19097.140625</v>
       </c>
       <c r="N2">
-        <v>19435.1015625</v>
+        <v>18866.123046875</v>
       </c>
       <c r="O2">
-        <v>21031.7109375</v>
+        <v>20653.119140625</v>
       </c>
       <c r="P2">
-        <v>24950.22265625</v>
+        <v>25344.0703125</v>
       </c>
       <c r="Q2">
-        <v>24950.166015625</v>
+        <v>25094.87890625</v>
       </c>
       <c r="R2">
-        <v>16454.1015625</v>
+        <v>16915.337890625</v>
       </c>
       <c r="S2">
-        <v>18239.453125</v>
+        <v>18111.416015625</v>
       </c>
       <c r="T2">
-        <v>26169.25390625</v>
+        <v>25845.046875</v>
       </c>
       <c r="U2">
-        <v>27341.52734375</v>
+        <v>27329.3671875</v>
       </c>
       <c r="V2">
-        <v>35855.9375</v>
+        <v>35955.703125</v>
       </c>
       <c r="W2">
-        <v>36731.3046875</v>
+        <v>36875.81640625</v>
       </c>
       <c r="X2">
-        <v>19955.693359375</v>
+        <v>20075.5546875</v>
       </c>
       <c r="Y2">
-        <v>21973.205078125</v>
+        <v>22177.818359375</v>
       </c>
       <c r="Z2">
-        <v>35380.39453125</v>
+        <v>35262.59375</v>
       </c>
       <c r="AA2">
-        <v>36156.89453125</v>
+        <v>36194.9921875</v>
       </c>
       <c r="AB2">
-        <v>47857.4453125</v>
+        <v>47898.484375</v>
       </c>
       <c r="AC2">
-        <v>47616.2109375</v>
+        <v>48390.5546875</v>
       </c>
       <c r="AD2">
-        <v>28388.2135519463</v>
+        <v>28299.3878252094</v>
       </c>
       <c r="AE2">
-        <v>28240.0105230133</v>
+        <v>28733.69177181265</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -1424,94 +1424,94 @@
         <v>45413</v>
       </c>
       <c r="B3">
-        <v>117037.578125</v>
+        <v>114932.0625</v>
       </c>
       <c r="C3">
-        <v>116089.6328125</v>
+        <v>116171.890625</v>
       </c>
       <c r="D3">
-        <v>125452.7578125</v>
+        <v>125953.6015625</v>
       </c>
       <c r="E3">
-        <v>123922.8359375</v>
+        <v>125006.078125</v>
       </c>
       <c r="F3">
-        <v>122663.4765625</v>
+        <v>115155.03125</v>
       </c>
       <c r="G3">
-        <v>128534.109375</v>
+        <v>123129.6171875</v>
       </c>
       <c r="H3">
-        <v>22146.3359375</v>
+        <v>22308.626953125</v>
       </c>
       <c r="I3">
-        <v>23936.69921875</v>
+        <v>24190.83203125</v>
       </c>
       <c r="J3">
-        <v>24779.349609375</v>
+        <v>24700.982421875</v>
       </c>
       <c r="K3">
-        <v>25261.685546875</v>
+        <v>25572.82421875</v>
       </c>
       <c r="L3">
-        <v>23482.509765625</v>
+        <v>22172.86328125</v>
       </c>
       <c r="M3">
-        <v>25748.283203125</v>
+        <v>24259.9140625</v>
       </c>
       <c r="N3">
-        <v>19338.78515625</v>
+        <v>19082.228515625</v>
       </c>
       <c r="O3">
-        <v>20740.7734375</v>
+        <v>20648.5234375</v>
       </c>
       <c r="P3">
-        <v>19210.85546875</v>
+        <v>19170.28125</v>
       </c>
       <c r="Q3">
-        <v>19651.7578125</v>
+        <v>19724.8828125</v>
       </c>
       <c r="R3">
-        <v>20901.51171875</v>
+        <v>20582.515625</v>
       </c>
       <c r="S3">
-        <v>25265.7265625</v>
+        <v>23217.8984375</v>
       </c>
       <c r="T3">
-        <v>25735.70703125</v>
+        <v>25837.65234375</v>
       </c>
       <c r="U3">
-        <v>27537.98046875</v>
+        <v>27245.234375</v>
       </c>
       <c r="V3">
-        <v>28077.33984375</v>
+        <v>28111.724609375</v>
       </c>
       <c r="W3">
-        <v>28631.6015625</v>
+        <v>28824.1875</v>
       </c>
       <c r="X3">
-        <v>26563.98046875</v>
+        <v>25477.953125</v>
       </c>
       <c r="Y3">
-        <v>30133.3359375</v>
+        <v>28525.609375</v>
       </c>
       <c r="Z3">
-        <v>34264.62890625</v>
+        <v>34581.265625</v>
       </c>
       <c r="AA3">
-        <v>37798.4453125</v>
+        <v>37035.27734375</v>
       </c>
       <c r="AB3">
-        <v>37678.8125</v>
+        <v>37283.38671875</v>
       </c>
       <c r="AC3">
-        <v>37646.77734375</v>
+        <v>38338.1796875</v>
       </c>
       <c r="AD3">
-        <v>30411.46119401326</v>
+        <v>29329.09302982949</v>
       </c>
       <c r="AE3">
-        <v>31817.73050139604</v>
+        <v>31391.4675330406</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -1519,94 +1519,94 @@
         <v>45444</v>
       </c>
       <c r="B4">
-        <v>114142.4453125</v>
+        <v>112477.65625</v>
       </c>
       <c r="C4">
-        <v>117830.4453125</v>
+        <v>116847.0234375</v>
       </c>
       <c r="D4">
-        <v>111110.0703125</v>
+        <v>109578.890625</v>
       </c>
       <c r="E4">
-        <v>103381.265625</v>
+        <v>104803.40625</v>
       </c>
       <c r="F4">
-        <v>112931.1328125</v>
+        <v>113716.734375</v>
       </c>
       <c r="G4">
-        <v>119584</v>
+        <v>122864.7578125</v>
       </c>
       <c r="H4">
-        <v>22579.853515625</v>
+        <v>22578.1875</v>
       </c>
       <c r="I4">
-        <v>23692.30078125</v>
+        <v>23754.9765625</v>
       </c>
       <c r="J4">
-        <v>21981.521484375</v>
+        <v>22110.29296875</v>
       </c>
       <c r="K4">
-        <v>22017.458984375</v>
+        <v>22189.703125</v>
       </c>
       <c r="L4">
-        <v>20942.0078125</v>
+        <v>21227.31640625</v>
       </c>
       <c r="M4">
-        <v>24463.07421875</v>
+        <v>24830.4921875</v>
       </c>
       <c r="N4">
-        <v>18874.3828125</v>
+        <v>18781.2109375</v>
       </c>
       <c r="O4">
-        <v>20530.220703125</v>
+        <v>20372.556640625</v>
       </c>
       <c r="P4">
-        <v>16821.294921875</v>
+        <v>17015.267578125</v>
       </c>
       <c r="Q4">
-        <v>17362.017578125</v>
+        <v>17419.482421875</v>
       </c>
       <c r="R4">
-        <v>19029.21875</v>
+        <v>19843.125</v>
       </c>
       <c r="S4">
-        <v>24559.3515625</v>
+        <v>24115.88671875</v>
       </c>
       <c r="T4">
-        <v>24940.27734375</v>
+        <v>24984.626953125</v>
       </c>
       <c r="U4">
-        <v>27301.26953125</v>
+        <v>27460.66015625</v>
       </c>
       <c r="V4">
-        <v>24407.392578125</v>
+        <v>24011.6953125</v>
       </c>
       <c r="W4">
-        <v>25586.38671875</v>
+        <v>25718.0078125</v>
       </c>
       <c r="X4">
-        <v>25504.85546875</v>
+        <v>25704.79296875</v>
       </c>
       <c r="Y4">
-        <v>28253.87890625</v>
+        <v>28677.609375</v>
       </c>
       <c r="Z4">
-        <v>32941.78515625</v>
+        <v>32738.8125</v>
       </c>
       <c r="AA4">
-        <v>35642.23828125</v>
+        <v>35292.98046875</v>
       </c>
       <c r="AB4">
-        <v>32222.3515625</v>
+        <v>31952.31640625</v>
       </c>
       <c r="AC4">
-        <v>33020.01171875</v>
+        <v>33260.25390625</v>
       </c>
       <c r="AD4">
-        <v>30697.17486926735</v>
+        <v>30866.5040225934</v>
       </c>
       <c r="AE4">
-        <v>31763.47929838903</v>
+        <v>31902.13515295691</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1614,94 +1614,94 @@
         <v>45474</v>
       </c>
       <c r="B5">
-        <v>108700.1328125</v>
+        <v>107506.1875</v>
       </c>
       <c r="C5">
-        <v>109528.171875</v>
+        <v>111184.875</v>
       </c>
       <c r="D5">
-        <v>145387.796875</v>
+        <v>144555.515625</v>
       </c>
       <c r="E5">
-        <v>149575.703125</v>
+        <v>149529.78125</v>
       </c>
       <c r="F5">
-        <v>87068.203125</v>
+        <v>88423.046875</v>
       </c>
       <c r="G5">
-        <v>91436.5625</v>
+        <v>91554.203125</v>
       </c>
       <c r="H5">
-        <v>20557.24609375</v>
+        <v>20607.5234375</v>
       </c>
       <c r="I5">
-        <v>21432.21875</v>
+        <v>21593.92578125</v>
       </c>
       <c r="J5">
-        <v>28860.58203125</v>
+        <v>29038.931640625</v>
       </c>
       <c r="K5">
-        <v>30160.80078125</v>
+        <v>30389.98046875</v>
       </c>
       <c r="L5">
-        <v>15809.515625</v>
+        <v>15695.7353515625</v>
       </c>
       <c r="M5">
-        <v>16798.986328125</v>
+        <v>16924.1171875</v>
       </c>
       <c r="N5">
-        <v>17565.138671875</v>
+        <v>17482.306640625</v>
       </c>
       <c r="O5">
-        <v>19597.5</v>
+        <v>19548.685546875</v>
       </c>
       <c r="P5">
-        <v>23469.052734375</v>
+        <v>23586.61328125</v>
       </c>
       <c r="Q5">
-        <v>23462.32421875</v>
+        <v>23372.93359375</v>
       </c>
       <c r="R5">
-        <v>15429.4853515625</v>
+        <v>15874.072265625</v>
       </c>
       <c r="S5">
-        <v>17697.474609375</v>
+        <v>16976.51171875</v>
       </c>
       <c r="T5">
-        <v>22558.271484375</v>
+        <v>22753.375</v>
       </c>
       <c r="U5">
-        <v>23544.828125</v>
+        <v>23997.52734375</v>
       </c>
       <c r="V5">
-        <v>32502.96484375</v>
+        <v>32322.712890625</v>
       </c>
       <c r="W5">
-        <v>32356.486328125</v>
+        <v>32610.92578125</v>
       </c>
       <c r="X5">
-        <v>18136.421875</v>
+        <v>18122.17578125</v>
       </c>
       <c r="Y5">
-        <v>18599.9921875</v>
+        <v>18833.376953125</v>
       </c>
       <c r="Z5">
-        <v>31598.734375</v>
+        <v>31923.4375</v>
       </c>
       <c r="AA5">
-        <v>33865.4375</v>
+        <v>34195.87109375</v>
       </c>
       <c r="AB5">
-        <v>40671.609375</v>
+        <v>41040.03515625</v>
       </c>
       <c r="AC5">
-        <v>43981.9296875</v>
+        <v>44362.0703125</v>
       </c>
       <c r="AD5">
-        <v>23019.7988987815</v>
+        <v>22934.52149810449</v>
       </c>
       <c r="AE5">
-        <v>24007.83906536025</v>
+        <v>23213.49600481588</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1709,94 +1709,94 @@
         <v>45505</v>
       </c>
       <c r="B6">
-        <v>111278.4296875</v>
+        <v>108955.84375</v>
       </c>
       <c r="C6">
-        <v>115690.421875</v>
+        <v>115589.828125</v>
       </c>
       <c r="D6">
-        <v>98179.0625</v>
+        <v>96059.8046875</v>
       </c>
       <c r="E6">
-        <v>96476.2890625</v>
+        <v>99386.1015625</v>
       </c>
       <c r="F6">
-        <v>117436.9375</v>
+        <v>117563</v>
       </c>
       <c r="G6">
-        <v>121199.421875</v>
+        <v>121159.046875</v>
       </c>
       <c r="H6">
-        <v>22336.865234375</v>
+        <v>22339.349609375</v>
       </c>
       <c r="I6">
-        <v>22475.44921875</v>
+        <v>22617.9453125</v>
       </c>
       <c r="J6">
-        <v>21501.36328125</v>
+        <v>21253.958984375</v>
       </c>
       <c r="K6">
-        <v>20356.896484375</v>
+        <v>20554.896484375</v>
       </c>
       <c r="L6">
-        <v>22862.92578125</v>
+        <v>23088.36328125</v>
       </c>
       <c r="M6">
-        <v>23547.0546875</v>
+        <v>23876.97265625</v>
       </c>
       <c r="N6">
-        <v>18216.880859375</v>
+        <v>18115.16015625</v>
       </c>
       <c r="O6">
-        <v>20684.482421875</v>
+        <v>20668.552734375</v>
       </c>
       <c r="P6">
-        <v>16586.349609375</v>
+        <v>16716.119140625</v>
       </c>
       <c r="Q6">
-        <v>16222.30859375</v>
+        <v>16220.6142578125</v>
       </c>
       <c r="R6">
-        <v>21180.693359375</v>
+        <v>22005.64453125</v>
       </c>
       <c r="S6">
-        <v>23868.13671875</v>
+        <v>23771.55078125</v>
       </c>
       <c r="T6">
-        <v>24811.015625</v>
+        <v>24627.55078125</v>
       </c>
       <c r="U6">
-        <v>26246.412109375</v>
+        <v>26359.564453125</v>
       </c>
       <c r="V6">
-        <v>23795.80859375</v>
+        <v>23288.953125</v>
       </c>
       <c r="W6">
-        <v>23132.84765625</v>
+        <v>23606.80859375</v>
       </c>
       <c r="X6">
-        <v>26360.09765625</v>
+        <v>26573.78515625</v>
       </c>
       <c r="Y6">
-        <v>27363.125</v>
+        <v>27810.080078125</v>
       </c>
       <c r="Z6">
-        <v>32587.921875</v>
+        <v>32585.6328125</v>
       </c>
       <c r="AA6">
-        <v>33526.17578125</v>
+        <v>33686.65625</v>
       </c>
       <c r="AB6">
-        <v>29594.935546875</v>
+        <v>29334.3359375</v>
       </c>
       <c r="AC6">
-        <v>30956.849609375</v>
+        <v>31133.193359375</v>
       </c>
       <c r="AD6">
-        <v>29871.15253021042</v>
+        <v>30070.63366306023</v>
       </c>
       <c r="AE6">
-        <v>31789.53128671294</v>
+        <v>31475.71062773287</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1804,94 +1804,94 @@
         <v>45536</v>
       </c>
       <c r="B7">
-        <v>109537.734375</v>
+        <v>109043.7109375</v>
       </c>
       <c r="C7">
-        <v>109932.765625</v>
+        <v>110181.4921875</v>
       </c>
       <c r="D7">
-        <v>122762.9375</v>
+        <v>123118.5</v>
       </c>
       <c r="E7">
-        <v>129629.5703125</v>
+        <v>129007.8203125</v>
       </c>
       <c r="F7">
-        <v>116766.171875</v>
+        <v>118064.015625</v>
       </c>
       <c r="G7">
-        <v>126904.15625</v>
+        <v>125548.4453125</v>
       </c>
       <c r="H7">
-        <v>23158.828125</v>
+        <v>23217.017578125</v>
       </c>
       <c r="I7">
-        <v>22633.81640625</v>
+        <v>22721.205078125</v>
       </c>
       <c r="J7">
-        <v>27427.6953125</v>
+        <v>27223.06640625</v>
       </c>
       <c r="K7">
-        <v>27855.69140625</v>
+        <v>27899.9765625</v>
       </c>
       <c r="L7">
-        <v>22651.88671875</v>
+        <v>22073.78515625</v>
       </c>
       <c r="M7">
-        <v>23779.296875</v>
+        <v>23825.6640625</v>
       </c>
       <c r="N7">
-        <v>18876.34765625</v>
+        <v>18892.146484375</v>
       </c>
       <c r="O7">
-        <v>20046.076171875</v>
+        <v>20254.94921875</v>
       </c>
       <c r="P7">
-        <v>21589.8515625</v>
+        <v>21563.240234375</v>
       </c>
       <c r="Q7">
-        <v>21163.63671875</v>
+        <v>21271.064453125</v>
       </c>
       <c r="R7">
-        <v>21530.02734375</v>
+        <v>22100.50390625</v>
       </c>
       <c r="S7">
-        <v>23730.44140625</v>
+        <v>23774.515625</v>
       </c>
       <c r="T7">
-        <v>24179.1171875</v>
+        <v>24031.705078125</v>
       </c>
       <c r="U7">
-        <v>24928.71875</v>
+        <v>25123.974609375</v>
       </c>
       <c r="V7">
-        <v>28655.720703125</v>
+        <v>28657.16796875</v>
       </c>
       <c r="W7">
-        <v>29093.97265625</v>
+        <v>29323.376953125</v>
       </c>
       <c r="X7">
-        <v>23297.07421875</v>
+        <v>23456.349609375</v>
       </c>
       <c r="Y7">
-        <v>24426.46875</v>
+        <v>24876.154296875</v>
       </c>
       <c r="Z7">
-        <v>33875.4375</v>
+        <v>33992.11328125</v>
       </c>
       <c r="AA7">
-        <v>36715.2578125</v>
+        <v>36684.7421875</v>
       </c>
       <c r="AB7">
-        <v>38210.6015625</v>
+        <v>38819.06640625</v>
       </c>
       <c r="AC7">
-        <v>41532.9453125</v>
+        <v>41252.41796875</v>
       </c>
       <c r="AD7">
-        <v>30697.17486926735</v>
+        <v>30866.5040225934</v>
       </c>
       <c r="AE7">
-        <v>31763.47929838903</v>
+        <v>31902.13515295691</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1899,94 +1899,94 @@
         <v>45566</v>
       </c>
       <c r="B8">
-        <v>110041.8515625</v>
+        <v>108422.59375</v>
       </c>
       <c r="C8">
-        <v>116555.0078125</v>
+        <v>116601.84375</v>
       </c>
       <c r="D8">
-        <v>147968.6875</v>
+        <v>146811.15625</v>
       </c>
       <c r="E8">
-        <v>154820.84375</v>
+        <v>153583</v>
       </c>
       <c r="F8">
-        <v>99066.546875</v>
+        <v>100579.2578125</v>
       </c>
       <c r="G8">
-        <v>110819.65625</v>
+        <v>111210.1015625</v>
       </c>
       <c r="H8">
-        <v>23543.75</v>
+        <v>23553.16015625</v>
       </c>
       <c r="I8">
-        <v>23690.83984375</v>
+        <v>23659.02734375</v>
       </c>
       <c r="J8">
-        <v>29075.48046875</v>
+        <v>29130.84765625</v>
       </c>
       <c r="K8">
-        <v>30764.9921875</v>
+        <v>31059.19921875</v>
       </c>
       <c r="L8">
-        <v>19130.04296875</v>
+        <v>19038.68359375</v>
       </c>
       <c r="M8">
-        <v>21105.400390625</v>
+        <v>21013.6875</v>
       </c>
       <c r="N8">
-        <v>19308.669921875</v>
+        <v>19306.50390625</v>
       </c>
       <c r="O8">
-        <v>20721.814453125</v>
+        <v>20624.373046875</v>
       </c>
       <c r="P8">
-        <v>23796.85546875</v>
+        <v>23762.990234375</v>
       </c>
       <c r="Q8">
-        <v>23896.802734375</v>
+        <v>23798.740234375</v>
       </c>
       <c r="R8">
-        <v>17624.49609375</v>
+        <v>17782.2109375</v>
       </c>
       <c r="S8">
-        <v>20469.712890625</v>
+        <v>20283.9765625</v>
       </c>
       <c r="T8">
-        <v>24771.220703125</v>
+        <v>25165.755859375</v>
       </c>
       <c r="U8">
-        <v>25416.453125</v>
+        <v>25381.89453125</v>
       </c>
       <c r="V8">
-        <v>32843.41015625</v>
+        <v>33026.80078125</v>
       </c>
       <c r="W8">
-        <v>33062.44921875</v>
+        <v>33623.6484375</v>
       </c>
       <c r="X8">
-        <v>21860.48828125</v>
+        <v>22033.2890625</v>
       </c>
       <c r="Y8">
-        <v>22482.9375</v>
+        <v>22706.875</v>
       </c>
       <c r="Z8">
-        <v>34342.92578125</v>
+        <v>34230.34375</v>
       </c>
       <c r="AA8">
-        <v>37735.61328125</v>
+        <v>37284.71875</v>
       </c>
       <c r="AB8">
-        <v>43912.640625</v>
+        <v>44245.8046875</v>
       </c>
       <c r="AC8">
-        <v>46495.9296875</v>
+        <v>46938.03515625</v>
       </c>
       <c r="AD8">
-        <v>29982.80139803911</v>
+        <v>29939.04040549129</v>
       </c>
       <c r="AE8">
-        <v>31036.62317501665</v>
+        <v>31278.76992661864</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1994,94 +1994,94 @@
         <v>45597</v>
       </c>
       <c r="B9">
-        <v>114534.4296875</v>
+        <v>114612.3203125</v>
       </c>
       <c r="C9">
-        <v>122299.40625</v>
+        <v>121647.8671875</v>
       </c>
       <c r="D9">
-        <v>107326.9921875</v>
+        <v>107014.4609375</v>
       </c>
       <c r="E9">
-        <v>108017.640625</v>
+        <v>109450.1171875</v>
       </c>
       <c r="F9">
-        <v>110740.3828125</v>
+        <v>110933.875</v>
       </c>
       <c r="G9">
-        <v>122000.578125</v>
+        <v>120530.796875</v>
       </c>
       <c r="H9">
-        <v>23772.80078125</v>
+        <v>23686.4375</v>
       </c>
       <c r="I9">
-        <v>24367.26171875</v>
+        <v>24513.986328125</v>
       </c>
       <c r="J9">
-        <v>22769.4609375</v>
+        <v>22833.587890625</v>
       </c>
       <c r="K9">
-        <v>22530.923828125</v>
+        <v>22637.974609375</v>
       </c>
       <c r="L9">
-        <v>20651.26953125</v>
+        <v>20679.83203125</v>
       </c>
       <c r="M9">
-        <v>24595.46875</v>
+        <v>24723.921875</v>
       </c>
       <c r="N9">
-        <v>19316.0546875</v>
+        <v>19455.138671875</v>
       </c>
       <c r="O9">
-        <v>21052.75</v>
+        <v>20956.134765625</v>
       </c>
       <c r="P9">
-        <v>17395.162109375</v>
+        <v>17367.0234375</v>
       </c>
       <c r="Q9">
-        <v>17805.728515625</v>
+        <v>17809.107421875</v>
       </c>
       <c r="R9">
-        <v>18798.3359375</v>
+        <v>19412.32421875</v>
       </c>
       <c r="S9">
-        <v>22584.599609375</v>
+        <v>22818.29296875</v>
       </c>
       <c r="T9">
-        <v>25288.03125</v>
+        <v>25095.7421875</v>
       </c>
       <c r="U9">
-        <v>26031.1328125</v>
+        <v>26220.28515625</v>
       </c>
       <c r="V9">
-        <v>22957.306640625</v>
+        <v>22950.37890625</v>
       </c>
       <c r="W9">
-        <v>24573.9765625</v>
+        <v>24823.955078125</v>
       </c>
       <c r="X9">
-        <v>23941.60546875</v>
+        <v>23782.607421875</v>
       </c>
       <c r="Y9">
-        <v>25229.853515625</v>
+        <v>25438.12890625</v>
       </c>
       <c r="Z9">
-        <v>34609.2109375</v>
+        <v>34451.71875</v>
       </c>
       <c r="AA9">
-        <v>37805.00390625</v>
+        <v>37777.76953125</v>
       </c>
       <c r="AB9">
-        <v>31875.69140625</v>
+        <v>31758.18359375</v>
       </c>
       <c r="AC9">
-        <v>34465.81640625</v>
+        <v>34731.53125</v>
       </c>
       <c r="AD9">
-        <v>29959.23749636487</v>
+        <v>30180.43361851348</v>
       </c>
       <c r="AE9">
-        <v>32053.35626792784</v>
+        <v>31504.79685384696</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -2089,94 +2089,94 @@
         <v>45627</v>
       </c>
       <c r="B10">
-        <v>109018.234375</v>
+        <v>108081.4453125</v>
       </c>
       <c r="C10">
-        <v>110663.6640625</v>
+        <v>111846.0234375</v>
       </c>
       <c r="D10">
-        <v>135156.21875</v>
+        <v>135123.34375</v>
       </c>
       <c r="E10">
-        <v>134721.125</v>
+        <v>136125.34375</v>
       </c>
       <c r="F10">
-        <v>94368.96875</v>
+        <v>96200.5390625</v>
       </c>
       <c r="G10">
-        <v>104509.4453125</v>
+        <v>103860.34375</v>
       </c>
       <c r="H10">
-        <v>23187.064453125</v>
+        <v>23193.708984375</v>
       </c>
       <c r="I10">
-        <v>23625.921875</v>
+        <v>23724.7265625</v>
       </c>
       <c r="J10">
-        <v>29507.060546875</v>
+        <v>29463.849609375</v>
       </c>
       <c r="K10">
-        <v>29287.24609375</v>
+        <v>29401.294921875</v>
       </c>
       <c r="L10">
-        <v>18764.02734375</v>
+        <v>18764.5</v>
       </c>
       <c r="M10">
-        <v>19286.25</v>
+        <v>19380.046875</v>
       </c>
       <c r="N10">
-        <v>19983.28125</v>
+        <v>19815.306640625</v>
       </c>
       <c r="O10">
-        <v>21032.6953125</v>
+        <v>20970.134765625</v>
       </c>
       <c r="P10">
-        <v>22761.0703125</v>
+        <v>22833.638671875</v>
       </c>
       <c r="Q10">
-        <v>21672.33203125</v>
+        <v>21758.802734375</v>
       </c>
       <c r="R10">
-        <v>17452.298828125</v>
+        <v>17939.9921875</v>
       </c>
       <c r="S10">
-        <v>19037.9375</v>
+        <v>19399.314453125</v>
       </c>
       <c r="T10">
-        <v>25039.779296875</v>
+        <v>25149.896484375</v>
       </c>
       <c r="U10">
-        <v>25215.345703125</v>
+        <v>25582.107421875</v>
       </c>
       <c r="V10">
-        <v>30766.623046875</v>
+        <v>30482.7734375</v>
       </c>
       <c r="W10">
-        <v>29945.052734375</v>
+        <v>30533.7734375</v>
       </c>
       <c r="X10">
-        <v>21004.32421875</v>
+        <v>20906.6484375</v>
       </c>
       <c r="Y10">
-        <v>21512.5703125</v>
+        <v>21461.7109375</v>
       </c>
       <c r="Z10">
-        <v>33835.1328125</v>
+        <v>34136.0703125</v>
       </c>
       <c r="AA10">
-        <v>36313.15234375</v>
+        <v>36169.60546875</v>
       </c>
       <c r="AB10">
-        <v>40383.5859375</v>
+        <v>40765.859375</v>
       </c>
       <c r="AC10">
-        <v>41340.01171875</v>
+        <v>41586.9765625</v>
       </c>
       <c r="AD10">
-        <v>29982.80139803911</v>
+        <v>29939.04040549129</v>
       </c>
       <c r="AE10">
-        <v>31036.62317501665</v>
+        <v>31278.76992661864</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -2184,94 +2184,94 @@
         <v>45658</v>
       </c>
       <c r="B11">
-        <v>101537.0546875</v>
+        <v>101166.59375</v>
       </c>
       <c r="C11">
-        <v>100603.71875</v>
+        <v>100188.4453125</v>
       </c>
       <c r="D11">
-        <v>102623.3984375</v>
+        <v>102224.4140625</v>
       </c>
       <c r="E11">
-        <v>104435.21875</v>
+        <v>104899.1640625</v>
       </c>
       <c r="F11">
-        <v>119711.421875</v>
+        <v>119854.46875</v>
       </c>
       <c r="G11">
-        <v>130493.2265625</v>
+        <v>131050.6171875</v>
       </c>
       <c r="H11">
-        <v>19817.783203125</v>
+        <v>19784.65625</v>
       </c>
       <c r="I11">
-        <v>20627.03125</v>
+        <v>20609.6171875</v>
       </c>
       <c r="J11">
-        <v>21083.8203125</v>
+        <v>21093.3125</v>
       </c>
       <c r="K11">
-        <v>20981.419921875</v>
+        <v>21110.0078125</v>
       </c>
       <c r="L11">
-        <v>23322.97265625</v>
+        <v>23613.9453125</v>
       </c>
       <c r="M11">
-        <v>25348.560546875</v>
+        <v>25193.16796875</v>
       </c>
       <c r="N11">
-        <v>16899.896484375</v>
+        <v>16834.376953125</v>
       </c>
       <c r="O11">
-        <v>17768.37109375</v>
+        <v>17751.33984375</v>
       </c>
       <c r="P11">
-        <v>16415.5625</v>
+        <v>16513.30078125</v>
       </c>
       <c r="Q11">
-        <v>16515.732421875</v>
+        <v>16359.361328125</v>
       </c>
       <c r="R11">
-        <v>22503.92578125</v>
+        <v>22808.375</v>
       </c>
       <c r="S11">
-        <v>23336.5859375</v>
+        <v>23598.33984375</v>
       </c>
       <c r="T11">
-        <v>22911.525390625</v>
+        <v>22907.859375</v>
       </c>
       <c r="U11">
-        <v>24592.111328125</v>
+        <v>24788.21484375</v>
       </c>
       <c r="V11">
-        <v>22486.833984375</v>
+        <v>22446.52734375</v>
       </c>
       <c r="W11">
-        <v>23388.69921875</v>
+        <v>23436.4140625</v>
       </c>
       <c r="X11">
-        <v>28225.921875</v>
+        <v>27874.6953125</v>
       </c>
       <c r="Y11">
-        <v>28856.484375</v>
+        <v>28801.283203125</v>
       </c>
       <c r="Z11">
-        <v>28672.9296875</v>
+        <v>28687.599609375</v>
       </c>
       <c r="AA11">
-        <v>30582.515625</v>
+        <v>30790.8203125</v>
       </c>
       <c r="AB11">
-        <v>29832.55859375</v>
+        <v>29624.9296875</v>
       </c>
       <c r="AC11">
-        <v>30342.859375</v>
+        <v>30425.6328125</v>
       </c>
       <c r="AD11">
-        <v>30411.46119401326</v>
+        <v>30124.96338936266</v>
       </c>
       <c r="AE11">
-        <v>31817.73050139604</v>
+        <v>31817.89205826464</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -2279,94 +2279,94 @@
         <v>45689</v>
       </c>
       <c r="B12">
-        <v>117690.71875</v>
+        <v>117577.59375</v>
       </c>
       <c r="C12">
-        <v>126170.203125</v>
+        <v>127331.90625</v>
       </c>
       <c r="D12">
-        <v>125631.359375</v>
+        <v>126218.078125</v>
       </c>
       <c r="E12">
-        <v>123594.046875</v>
+        <v>124259.515625</v>
       </c>
       <c r="F12">
-        <v>112996.5</v>
+        <v>112341.96875</v>
       </c>
       <c r="G12">
-        <v>121493.0390625</v>
+        <v>121926.921875</v>
       </c>
       <c r="H12">
-        <v>25763.8984375</v>
+        <v>25448.791015625</v>
       </c>
       <c r="I12">
-        <v>25625.75</v>
+        <v>25574.7109375</v>
       </c>
       <c r="J12">
-        <v>25205.345703125</v>
+        <v>25201.6640625</v>
       </c>
       <c r="K12">
-        <v>26039.611328125</v>
+        <v>26357.365234375</v>
       </c>
       <c r="L12">
-        <v>21784.4140625</v>
+        <v>21753.51953125</v>
       </c>
       <c r="M12">
-        <v>24641.1015625</v>
+        <v>24395.00390625</v>
       </c>
       <c r="N12">
-        <v>20861.111328125</v>
+        <v>21071.09765625</v>
       </c>
       <c r="O12">
-        <v>21736.314453125</v>
+        <v>21915.8203125</v>
       </c>
       <c r="P12">
-        <v>19990.37890625</v>
+        <v>20341.27734375</v>
       </c>
       <c r="Q12">
-        <v>20694.025390625</v>
+        <v>20813.9140625</v>
       </c>
       <c r="R12">
-        <v>20623.3046875</v>
+        <v>20605.640625</v>
       </c>
       <c r="S12">
-        <v>22934.5625</v>
+        <v>23190.0234375</v>
       </c>
       <c r="T12">
-        <v>28944.37109375</v>
+        <v>28956.45703125</v>
       </c>
       <c r="U12">
-        <v>28750.9921875</v>
+        <v>29062.87109375</v>
       </c>
       <c r="V12">
-        <v>28205.080078125</v>
+        <v>28058.96484375</v>
       </c>
       <c r="W12">
-        <v>29526.7890625</v>
+        <v>29620.69921875</v>
       </c>
       <c r="X12">
-        <v>26518.609375</v>
+        <v>26259.5703125</v>
       </c>
       <c r="Y12">
-        <v>28016.298828125</v>
+        <v>27962.30078125</v>
       </c>
       <c r="Z12">
-        <v>35969.9921875</v>
+        <v>36101.25390625</v>
       </c>
       <c r="AA12">
-        <v>37469.79296875</v>
+        <v>37363.8671875</v>
       </c>
       <c r="AB12">
-        <v>35340.2109375</v>
+        <v>35475.09375</v>
       </c>
       <c r="AC12">
-        <v>36742.23046875</v>
+        <v>37488.2265625</v>
       </c>
       <c r="AD12">
-        <v>29959.23749636487</v>
+        <v>30180.43361851348</v>
       </c>
       <c r="AE12">
-        <v>32053.35626792784</v>
+        <v>31504.79685384696</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -2374,94 +2374,94 @@
         <v>45717</v>
       </c>
       <c r="B13">
-        <v>101309.7421875</v>
+        <v>101601.8515625</v>
       </c>
       <c r="C13">
-        <v>105861.09375</v>
+        <v>105299.609375</v>
       </c>
       <c r="D13">
-        <v>111501.484375</v>
+        <v>111404.4765625</v>
       </c>
       <c r="E13">
-        <v>119748.96875</v>
+        <v>119853.8828125</v>
       </c>
       <c r="F13">
-        <v>93724.5078125</v>
+        <v>94897.6875</v>
       </c>
       <c r="G13">
-        <v>92400.3515625</v>
+        <v>93522.046875</v>
       </c>
       <c r="H13">
-        <v>21218.71875</v>
+        <v>21095.154296875</v>
       </c>
       <c r="I13">
-        <v>22376.84765625</v>
+        <v>22551.0703125</v>
       </c>
       <c r="J13">
-        <v>25398.1328125</v>
+        <v>25082.3828125</v>
       </c>
       <c r="K13">
-        <v>25233.568359375</v>
+        <v>25213.10546875</v>
       </c>
       <c r="L13">
-        <v>18847.017578125</v>
+        <v>18977.724609375</v>
       </c>
       <c r="M13">
-        <v>20097.484375</v>
+        <v>19732.34375</v>
       </c>
       <c r="N13">
-        <v>17748.125</v>
+        <v>17851.3046875</v>
       </c>
       <c r="O13">
-        <v>18539.078125</v>
+        <v>18436.12890625</v>
       </c>
       <c r="P13">
-        <v>18206.974609375</v>
+        <v>18234.27734375</v>
       </c>
       <c r="Q13">
-        <v>18876.1953125</v>
+        <v>18991.951171875</v>
       </c>
       <c r="R13">
-        <v>17592.17578125</v>
+        <v>17857.18359375</v>
       </c>
       <c r="S13">
-        <v>18060.763671875</v>
+        <v>17872.34765625</v>
       </c>
       <c r="T13">
-        <v>22793.513671875</v>
+        <v>23180.625</v>
       </c>
       <c r="U13">
-        <v>24021.16015625</v>
+        <v>24171.78125</v>
       </c>
       <c r="V13">
-        <v>25551.431640625</v>
+        <v>25322.279296875</v>
       </c>
       <c r="W13">
-        <v>27696.35546875</v>
+        <v>27916.4140625</v>
       </c>
       <c r="X13">
-        <v>21131.970703125</v>
+        <v>20671.1953125</v>
       </c>
       <c r="Y13">
-        <v>20995.60546875</v>
+        <v>21419.259765625</v>
       </c>
       <c r="Z13">
-        <v>30963.509765625</v>
+        <v>31037.60546875</v>
       </c>
       <c r="AA13">
-        <v>31677.078125</v>
+        <v>31630.5390625</v>
       </c>
       <c r="AB13">
-        <v>33629.484375</v>
+        <v>33600.19140625</v>
       </c>
       <c r="AC13">
-        <v>34296.421875</v>
+        <v>35044.90625</v>
       </c>
       <c r="AD13">
-        <v>27270.2376720261</v>
+        <v>27270.43592187212</v>
       </c>
       <c r="AE13">
-        <v>28139.29376629468</v>
+        <v>27825.10144004764</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -2469,94 +2469,94 @@
         <v>45748</v>
       </c>
       <c r="B14">
-        <v>107501.2265625</v>
+        <v>108324.5546875</v>
       </c>
       <c r="C14">
-        <v>115307.546875</v>
+        <v>116308.828125</v>
       </c>
       <c r="D14">
-        <v>158751.953125</v>
+        <v>156793.171875</v>
       </c>
       <c r="E14">
-        <v>158618.6875</v>
+        <v>159354.890625</v>
       </c>
       <c r="F14">
-        <v>85276.03125</v>
+        <v>87010.6484375</v>
       </c>
       <c r="G14">
-        <v>91844.3125</v>
+        <v>92133.796875</v>
       </c>
       <c r="H14">
-        <v>22717.056640625</v>
+        <v>22882.86328125</v>
       </c>
       <c r="I14">
-        <v>23449.046875</v>
+        <v>23424.369140625</v>
       </c>
       <c r="J14">
-        <v>30757.474609375</v>
+        <v>30653.91015625</v>
       </c>
       <c r="K14">
-        <v>31631.037109375</v>
+        <v>31893.115234375</v>
       </c>
       <c r="L14">
-        <v>17449.80078125</v>
+        <v>17746.880859375</v>
       </c>
       <c r="M14">
-        <v>18513.748046875</v>
+        <v>18562.60546875</v>
       </c>
       <c r="N14">
-        <v>19277.279296875</v>
+        <v>19226.3984375</v>
       </c>
       <c r="O14">
-        <v>19671.890625</v>
+        <v>19604.76171875</v>
       </c>
       <c r="P14">
-        <v>24117.177734375</v>
+        <v>24268.607421875</v>
       </c>
       <c r="Q14">
-        <v>24317.982421875</v>
+        <v>24266.1953125</v>
       </c>
       <c r="R14">
-        <v>16749.171875</v>
+        <v>17174.3515625</v>
       </c>
       <c r="S14">
-        <v>16808.873046875</v>
+        <v>16838.40234375</v>
       </c>
       <c r="T14">
-        <v>25570.607421875</v>
+        <v>25213.095703125</v>
       </c>
       <c r="U14">
-        <v>26490.873046875</v>
+        <v>26677.6328125</v>
       </c>
       <c r="V14">
-        <v>33712.25</v>
+        <v>33947.390625</v>
       </c>
       <c r="W14">
-        <v>34407.1328125</v>
+        <v>34564.828125</v>
       </c>
       <c r="X14">
-        <v>20840.8828125</v>
+        <v>20672.330078125</v>
       </c>
       <c r="Y14">
-        <v>20905.87109375</v>
+        <v>20877.84375</v>
       </c>
       <c r="Z14">
-        <v>34140.94921875</v>
+        <v>34213.609375</v>
       </c>
       <c r="AA14">
-        <v>35071.67578125</v>
+        <v>35209.94140625</v>
       </c>
       <c r="AB14">
-        <v>43221.29296875</v>
+        <v>44318.484375</v>
       </c>
       <c r="AC14">
-        <v>46872.9296875</v>
+        <v>47567.68359375</v>
       </c>
       <c r="AD14">
-        <v>24280.20441304244</v>
+        <v>24079.85946873521</v>
       </c>
       <c r="AE14">
-        <v>24062.1201339351</v>
+        <v>24481.87888635275</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -2564,94 +2564,94 @@
         <v>45778</v>
       </c>
       <c r="B15">
-        <v>107019.1796875</v>
+        <v>106275.2578125</v>
       </c>
       <c r="C15">
-        <v>114135.4921875</v>
+        <v>115101.734375</v>
       </c>
       <c r="D15">
-        <v>106131.640625</v>
+        <v>105761.2109375</v>
       </c>
       <c r="E15">
-        <v>106112.84375</v>
+        <v>106754.328125</v>
       </c>
       <c r="F15">
-        <v>132752.65625</v>
+        <v>126107.65625</v>
       </c>
       <c r="G15">
-        <v>137663.484375</v>
+        <v>129886.5625</v>
       </c>
       <c r="H15">
-        <v>22936.150390625</v>
+        <v>22942.85546875</v>
       </c>
       <c r="I15">
-        <v>22668.759765625</v>
+        <v>22909.880859375</v>
       </c>
       <c r="J15">
-        <v>21915.08203125</v>
+        <v>21491.69921875</v>
       </c>
       <c r="K15">
-        <v>21069.9453125</v>
+        <v>21077.56640625</v>
       </c>
       <c r="L15">
-        <v>25718.892578125</v>
+        <v>24275.84765625</v>
       </c>
       <c r="M15">
-        <v>28509.70703125</v>
+        <v>26646.875</v>
       </c>
       <c r="N15">
-        <v>18940.548828125</v>
+        <v>18838.888671875</v>
       </c>
       <c r="O15">
-        <v>20081.80078125</v>
+        <v>20256.802734375</v>
       </c>
       <c r="P15">
-        <v>16453.45703125</v>
+        <v>16789.48828125</v>
       </c>
       <c r="Q15">
-        <v>16656.0625</v>
+        <v>16817.2578125</v>
       </c>
       <c r="R15">
-        <v>24620.21875</v>
+        <v>23602.693359375</v>
       </c>
       <c r="S15">
-        <v>26196.14453125</v>
+        <v>24482.703125</v>
       </c>
       <c r="T15">
-        <v>25803.068359375</v>
+        <v>25829.078125</v>
       </c>
       <c r="U15">
-        <v>26622.80078125</v>
+        <v>26753.908203125</v>
       </c>
       <c r="V15">
-        <v>22675.1015625</v>
+        <v>22769.30078125</v>
       </c>
       <c r="W15">
-        <v>24240.55859375</v>
+        <v>24190.33984375</v>
       </c>
       <c r="X15">
-        <v>30143.58984375</v>
+        <v>28021.7734375</v>
       </c>
       <c r="Y15">
-        <v>32407.70703125</v>
+        <v>30252.650390625</v>
       </c>
       <c r="Z15">
-        <v>32205.599609375</v>
+        <v>33022.42578125</v>
       </c>
       <c r="AA15">
-        <v>35290.99609375</v>
+        <v>35337.76953125</v>
       </c>
       <c r="AB15">
-        <v>32335.181640625</v>
+        <v>32100.751953125</v>
       </c>
       <c r="AC15">
-        <v>32653.275390625</v>
+        <v>33225.6171875</v>
       </c>
       <c r="AD15">
-        <v>30697.17486926735</v>
+        <v>30866.5040225934</v>
       </c>
       <c r="AE15">
-        <v>31763.47929838903</v>
+        <v>31902.13515295691</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -2659,94 +2659,94 @@
         <v>45809</v>
       </c>
       <c r="B16">
-        <v>105417.6484375</v>
+        <v>105073.0390625</v>
       </c>
       <c r="C16">
-        <v>116677.109375</v>
+        <v>117487.046875</v>
       </c>
       <c r="D16">
-        <v>118613.2890625</v>
+        <v>118179.15625</v>
       </c>
       <c r="E16">
-        <v>121077.46875</v>
+        <v>122800.4296875</v>
       </c>
       <c r="F16">
-        <v>98750.890625</v>
+        <v>97941.8359375</v>
       </c>
       <c r="G16">
-        <v>104447.578125</v>
+        <v>104434.6171875</v>
       </c>
       <c r="H16">
-        <v>22749.541015625</v>
+        <v>22634.591796875</v>
       </c>
       <c r="I16">
-        <v>23382.494140625</v>
+        <v>23448.3671875</v>
       </c>
       <c r="J16">
-        <v>24783.326171875</v>
+        <v>24617.673828125</v>
       </c>
       <c r="K16">
-        <v>24665.083984375</v>
+        <v>24980.083984375</v>
       </c>
       <c r="L16">
-        <v>19285.298828125</v>
+        <v>19763.93359375</v>
       </c>
       <c r="M16">
-        <v>21595.90234375</v>
+        <v>21539.966796875</v>
       </c>
       <c r="N16">
-        <v>18988.96484375</v>
+        <v>19011.91015625</v>
       </c>
       <c r="O16">
-        <v>19712.140625</v>
+        <v>19570.19140625</v>
       </c>
       <c r="P16">
-        <v>19379.55078125</v>
+        <v>19359.38671875</v>
       </c>
       <c r="Q16">
-        <v>19734.3671875</v>
+        <v>19723.3203125</v>
       </c>
       <c r="R16">
-        <v>18671.69140625</v>
+        <v>18859.640625</v>
       </c>
       <c r="S16">
-        <v>19871.49609375</v>
+        <v>19841.43359375</v>
       </c>
       <c r="T16">
-        <v>25125.6953125</v>
+        <v>25360.71875</v>
       </c>
       <c r="U16">
-        <v>26589.62109375</v>
+        <v>26861.45703125</v>
       </c>
       <c r="V16">
-        <v>26676.5546875</v>
+        <v>26708.744140625</v>
       </c>
       <c r="W16">
-        <v>28267.001953125</v>
+        <v>28294.947265625</v>
       </c>
       <c r="X16">
-        <v>22204.63671875</v>
+        <v>21813.828125</v>
       </c>
       <c r="Y16">
-        <v>24419.0859375</v>
+        <v>24364.455078125</v>
       </c>
       <c r="Z16">
-        <v>33335.41796875</v>
+        <v>33283.22265625</v>
       </c>
       <c r="AA16">
-        <v>34558.6484375</v>
+        <v>34637.86328125</v>
       </c>
       <c r="AB16">
-        <v>34873.421875</v>
+        <v>35669.33984375</v>
       </c>
       <c r="AC16">
-        <v>36546.2421875</v>
+        <v>36522.328125</v>
       </c>
       <c r="AD16">
-        <v>30410.60903831226</v>
+        <v>30665.06603118349</v>
       </c>
       <c r="AE16">
-        <v>31684.35459248694</v>
+        <v>31774.37888649063</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2754,94 +2754,94 @@
         <v>45839</v>
       </c>
       <c r="B17">
-        <v>102123.1875</v>
+        <v>102061.7734375</v>
       </c>
       <c r="C17">
-        <v>108007.9765625</v>
+        <v>108061.40625</v>
       </c>
       <c r="D17">
-        <v>142171.3125</v>
+        <v>141737.140625</v>
       </c>
       <c r="E17">
-        <v>146564.546875</v>
+        <v>147197.3125</v>
       </c>
       <c r="F17">
-        <v>83324.9296875</v>
+        <v>84636.1953125</v>
       </c>
       <c r="G17">
-        <v>85909.0859375</v>
+        <v>86932.625</v>
       </c>
       <c r="H17">
-        <v>20616.099609375</v>
+        <v>20625.0234375</v>
       </c>
       <c r="I17">
-        <v>21178.4453125</v>
+        <v>21364.564453125</v>
       </c>
       <c r="J17">
-        <v>28348.96875</v>
+        <v>28447.73828125</v>
       </c>
       <c r="K17">
-        <v>29663.095703125</v>
+        <v>29736.248046875</v>
       </c>
       <c r="L17">
-        <v>16015.560546875</v>
+        <v>16098.4736328125</v>
       </c>
       <c r="M17">
-        <v>16486.09375</v>
+        <v>16549.6796875</v>
       </c>
       <c r="N17">
-        <v>17589.125</v>
+        <v>17914.6015625</v>
       </c>
       <c r="O17">
-        <v>19333.75</v>
+        <v>19092.3515625</v>
       </c>
       <c r="P17">
-        <v>23430.55859375</v>
+        <v>23365.01953125</v>
       </c>
       <c r="Q17">
-        <v>23385.05859375</v>
+        <v>23411.783203125</v>
       </c>
       <c r="R17">
-        <v>16121.193359375</v>
+        <v>16102.3515625</v>
       </c>
       <c r="S17">
-        <v>16897.029296875</v>
+        <v>16770.181640625</v>
       </c>
       <c r="T17">
-        <v>22541.32421875</v>
+        <v>22390.185546875</v>
       </c>
       <c r="U17">
-        <v>23338.357421875</v>
+        <v>23296.05078125</v>
       </c>
       <c r="V17">
-        <v>32344.36328125</v>
+        <v>31937.1640625</v>
       </c>
       <c r="W17">
-        <v>32468.521484375</v>
+        <v>32276.00390625</v>
       </c>
       <c r="X17">
-        <v>17257.3515625</v>
+        <v>16853.55078125</v>
       </c>
       <c r="Y17">
-        <v>17830.90625</v>
+        <v>17965.716796875</v>
       </c>
       <c r="Z17">
-        <v>30926.9140625</v>
+        <v>30966.927734375</v>
       </c>
       <c r="AA17">
-        <v>32214.939453125</v>
+        <v>32220.734375</v>
       </c>
       <c r="AB17">
-        <v>39539.37890625</v>
+        <v>39798.37890625</v>
       </c>
       <c r="AC17">
-        <v>42233.625</v>
+        <v>43337</v>
       </c>
       <c r="AD17">
-        <v>23019.7988987815</v>
+        <v>22934.52149810449</v>
       </c>
       <c r="AE17">
-        <v>24007.83906536025</v>
+        <v>23213.49600481588</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2849,94 +2849,94 @@
         <v>45870</v>
       </c>
       <c r="B18">
-        <v>105583.2265625</v>
+        <v>105883.640625</v>
       </c>
       <c r="C18">
-        <v>108825.4375</v>
+        <v>110107.125</v>
       </c>
       <c r="D18">
-        <v>88782.0703125</v>
+        <v>89177.2890625</v>
       </c>
       <c r="E18">
-        <v>91063.78125</v>
+        <v>91874.078125</v>
       </c>
       <c r="F18">
-        <v>120159.875</v>
+        <v>119829.328125</v>
       </c>
       <c r="G18">
-        <v>120326.703125</v>
+        <v>122705.484375</v>
       </c>
       <c r="H18">
-        <v>22033.83984375</v>
+        <v>22043.837890625</v>
       </c>
       <c r="I18">
-        <v>21870.833984375</v>
+        <v>21875.4921875</v>
       </c>
       <c r="J18">
-        <v>18138.416015625</v>
+        <v>18020.033203125</v>
       </c>
       <c r="K18">
-        <v>17977.474609375</v>
+        <v>17963.361328125</v>
       </c>
       <c r="L18">
-        <v>23043.87890625</v>
+        <v>23166.8671875</v>
       </c>
       <c r="M18">
-        <v>24557.86328125</v>
+        <v>24455.0625</v>
       </c>
       <c r="N18">
-        <v>18759.9765625</v>
+        <v>18849.37109375</v>
       </c>
       <c r="O18">
-        <v>19533.86328125</v>
+        <v>19452.73046875</v>
       </c>
       <c r="P18">
-        <v>14378.3125</v>
+        <v>14585.3837890625</v>
       </c>
       <c r="Q18">
-        <v>14108.3896484375</v>
+        <v>14067.181640625</v>
       </c>
       <c r="R18">
-        <v>21262.265625</v>
+        <v>21431.25</v>
       </c>
       <c r="S18">
-        <v>22563.9765625</v>
+        <v>22750.638671875</v>
       </c>
       <c r="T18">
-        <v>24799.72265625</v>
+        <v>24754.9140625</v>
       </c>
       <c r="U18">
-        <v>25793.2109375</v>
+        <v>25709.09375</v>
       </c>
       <c r="V18">
-        <v>19322.10546875</v>
+        <v>19392.5234375</v>
       </c>
       <c r="W18">
-        <v>20865.87109375</v>
+        <v>20970.32421875</v>
       </c>
       <c r="X18">
-        <v>27366.4921875</v>
+        <v>26899.07421875</v>
       </c>
       <c r="Y18">
-        <v>28426.734375</v>
+        <v>28723.07421875</v>
       </c>
       <c r="Z18">
-        <v>30444.5</v>
+        <v>30675.400390625</v>
       </c>
       <c r="AA18">
-        <v>32996.5</v>
+        <v>33074.5234375</v>
       </c>
       <c r="AB18">
-        <v>26143.603515625</v>
+        <v>26079.828125</v>
       </c>
       <c r="AC18">
-        <v>25372.794921875</v>
+        <v>25957.11328125</v>
       </c>
       <c r="AD18">
-        <v>29959.23749636487</v>
+        <v>30180.43361851348</v>
       </c>
       <c r="AE18">
-        <v>32053.35626792784</v>
+        <v>31504.79685384696</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2944,94 +2944,94 @@
         <v>45901</v>
       </c>
       <c r="B19">
-        <v>110742.3046875</v>
+        <v>109912.3984375</v>
       </c>
       <c r="C19">
-        <v>114964.140625</v>
+        <v>116290.984375</v>
       </c>
       <c r="D19">
-        <v>146907.171875</v>
+        <v>146066.875</v>
       </c>
       <c r="E19">
-        <v>155507.21875</v>
+        <v>156170.34375</v>
       </c>
       <c r="F19">
-        <v>89312.4375</v>
+        <v>89641.671875</v>
       </c>
       <c r="G19">
-        <v>86838.671875</v>
+        <v>88818.8828125</v>
       </c>
       <c r="H19">
-        <v>23378.638671875</v>
+        <v>22918.26953125</v>
       </c>
       <c r="I19">
-        <v>23760.984375</v>
+        <v>23574.248046875</v>
       </c>
       <c r="J19">
-        <v>30574.515625</v>
+        <v>30285.8046875</v>
       </c>
       <c r="K19">
-        <v>30882.69140625</v>
+        <v>31177.158203125</v>
       </c>
       <c r="L19">
-        <v>18526.283203125</v>
+        <v>18522.525390625</v>
       </c>
       <c r="M19">
-        <v>18900.615234375</v>
+        <v>19068.48828125</v>
       </c>
       <c r="N19">
-        <v>18943.69921875</v>
+        <v>18962.75390625</v>
       </c>
       <c r="O19">
-        <v>20702.642578125</v>
+        <v>20888.2578125</v>
       </c>
       <c r="P19">
-        <v>24679.91015625</v>
+        <v>24550.623046875</v>
       </c>
       <c r="Q19">
-        <v>24696.47265625</v>
+        <v>24736.046875</v>
       </c>
       <c r="R19">
-        <v>16987.228515625</v>
+        <v>16944.171875</v>
       </c>
       <c r="S19">
-        <v>17983.357421875</v>
+        <v>17988.50390625</v>
       </c>
       <c r="T19">
-        <v>23691.255859375</v>
+        <v>23582.00390625</v>
       </c>
       <c r="U19">
-        <v>25566.521484375</v>
+        <v>25720.19140625</v>
       </c>
       <c r="V19">
-        <v>32239.884765625</v>
+        <v>32267.0546875</v>
       </c>
       <c r="W19">
-        <v>32971.625</v>
+        <v>33241.35546875</v>
       </c>
       <c r="X19">
-        <v>18221.7265625</v>
+        <v>18098.58203125</v>
       </c>
       <c r="Y19">
-        <v>19047.96484375</v>
+        <v>19118.85546875</v>
       </c>
       <c r="Z19">
-        <v>34127.44921875</v>
+        <v>34472.15234375</v>
       </c>
       <c r="AA19">
-        <v>34967.8984375</v>
+        <v>35171.546875</v>
       </c>
       <c r="AB19">
-        <v>41722.78515625</v>
+        <v>42341.125</v>
       </c>
       <c r="AC19">
-        <v>43604.23046875</v>
+        <v>45558.6875</v>
       </c>
       <c r="AD19">
-        <v>26483.14208594485</v>
+        <v>26620.83502710138</v>
       </c>
       <c r="AE19">
-        <v>26567.8559358584</v>
+        <v>26339.53549546564</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -3039,94 +3039,94 @@
         <v>45931</v>
       </c>
       <c r="B20">
-        <v>109661.8359375</v>
+        <v>108779.0859375</v>
       </c>
       <c r="C20">
-        <v>111075.140625</v>
+        <v>110542.4765625</v>
       </c>
       <c r="D20">
-        <v>124770.671875</v>
+        <v>124404.125</v>
       </c>
       <c r="E20">
-        <v>132404.1875</v>
+        <v>131960.390625</v>
       </c>
       <c r="F20">
-        <v>120285.078125</v>
+        <v>121082.875</v>
       </c>
       <c r="G20">
-        <v>119679.140625</v>
+        <v>121399.953125</v>
       </c>
       <c r="H20">
-        <v>22532.662109375</v>
+        <v>22738.955078125</v>
       </c>
       <c r="I20">
-        <v>22556.353515625</v>
+        <v>22757.576171875</v>
       </c>
       <c r="J20">
-        <v>27026.9375</v>
+        <v>27165.673828125</v>
       </c>
       <c r="K20">
-        <v>26709.869140625</v>
+        <v>27122.25</v>
       </c>
       <c r="L20">
-        <v>23376.01171875</v>
+        <v>23329.1015625</v>
       </c>
       <c r="M20">
-        <v>24121.37109375</v>
+        <v>23952.54296875</v>
       </c>
       <c r="N20">
-        <v>18792.158203125</v>
+        <v>18780.373046875</v>
       </c>
       <c r="O20">
-        <v>21003.46875</v>
+        <v>20813.875</v>
       </c>
       <c r="P20">
-        <v>20700.662109375</v>
+        <v>20710.017578125</v>
       </c>
       <c r="Q20">
-        <v>20696.9765625</v>
+        <v>20863.3671875</v>
       </c>
       <c r="R20">
-        <v>21716.78515625</v>
+        <v>21646.37109375</v>
       </c>
       <c r="S20">
-        <v>23009.109375</v>
+        <v>22951.171875</v>
       </c>
       <c r="T20">
-        <v>24692.095703125</v>
+        <v>24571.57421875</v>
       </c>
       <c r="U20">
-        <v>25673.5</v>
+        <v>26205.72265625</v>
       </c>
       <c r="V20">
-        <v>28134.16796875</v>
+        <v>28065.57421875</v>
       </c>
       <c r="W20">
-        <v>29234.837890625</v>
+        <v>29322.482421875</v>
       </c>
       <c r="X20">
-        <v>23938.927734375</v>
+        <v>23795.556640625</v>
       </c>
       <c r="Y20">
-        <v>26628.154296875</v>
+        <v>26303.515625</v>
       </c>
       <c r="Z20">
-        <v>32233.669921875</v>
+        <v>32802.44921875</v>
       </c>
       <c r="AA20">
-        <v>35685.70703125</v>
+        <v>35521.828125</v>
       </c>
       <c r="AB20">
-        <v>36126.19140625</v>
+        <v>36564.87109375</v>
       </c>
       <c r="AC20">
-        <v>38729.4765625</v>
+        <v>39233.04296875</v>
       </c>
       <c r="AD20">
-        <v>30411.46119401326</v>
+        <v>30124.96338936266</v>
       </c>
       <c r="AE20">
-        <v>31817.73050139604</v>
+        <v>31817.89205826464</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -3134,94 +3134,94 @@
         <v>45962</v>
       </c>
       <c r="B21">
-        <v>110818.9375</v>
+        <v>110888.7109375</v>
       </c>
       <c r="C21">
-        <v>120260.4296875</v>
+        <v>120080.9765625</v>
       </c>
       <c r="D21">
-        <v>113250.3984375</v>
+        <v>112624.9296875</v>
       </c>
       <c r="E21">
-        <v>109467.6796875</v>
+        <v>110920.453125</v>
       </c>
       <c r="F21">
-        <v>111412.625</v>
+        <v>111081</v>
       </c>
       <c r="G21">
-        <v>119134.2109375</v>
+        <v>118775.78125</v>
       </c>
       <c r="H21">
-        <v>23335.0078125</v>
+        <v>23466.6640625</v>
       </c>
       <c r="I21">
-        <v>23796.1328125</v>
+        <v>23814.33984375</v>
       </c>
       <c r="J21">
-        <v>23143.6328125</v>
+        <v>23201.912109375</v>
       </c>
       <c r="K21">
-        <v>21963.21484375</v>
+        <v>22108.46875</v>
       </c>
       <c r="L21">
-        <v>21572.4921875</v>
+        <v>22275.4453125</v>
       </c>
       <c r="M21">
-        <v>23117.759765625</v>
+        <v>23014.55078125</v>
       </c>
       <c r="N21">
-        <v>18719.04296875</v>
+        <v>18886.09765625</v>
       </c>
       <c r="O21">
-        <v>20993.130859375</v>
+        <v>21085.716796875</v>
       </c>
       <c r="P21">
-        <v>17606.7578125</v>
+        <v>17622.3046875</v>
       </c>
       <c r="Q21">
-        <v>17973.021484375</v>
+        <v>17935.298828125</v>
       </c>
       <c r="R21">
-        <v>19883.806640625</v>
+        <v>20013.88671875</v>
       </c>
       <c r="S21">
-        <v>21309.22265625</v>
+        <v>21484.6953125</v>
       </c>
       <c r="T21">
-        <v>24414.625</v>
+        <v>24471.484375</v>
       </c>
       <c r="U21">
-        <v>26381.609375</v>
+        <v>26353.560546875</v>
       </c>
       <c r="V21">
-        <v>23113.3984375</v>
+        <v>23149.482421875</v>
       </c>
       <c r="W21">
-        <v>24264.572265625</v>
+        <v>24166.80078125</v>
       </c>
       <c r="X21">
-        <v>23470.41015625</v>
+        <v>23412.08203125</v>
       </c>
       <c r="Y21">
-        <v>25201.90625</v>
+        <v>25369.458984375</v>
       </c>
       <c r="Z21">
-        <v>34678.671875</v>
+        <v>34371.2109375</v>
       </c>
       <c r="AA21">
-        <v>36037.84375</v>
+        <v>35900.4765625</v>
       </c>
       <c r="AB21">
-        <v>33880.28515625</v>
+        <v>33294.7109375</v>
       </c>
       <c r="AC21">
-        <v>33521.84375</v>
+        <v>33804.75</v>
       </c>
       <c r="AD21">
-        <v>29959.23749636487</v>
+        <v>30180.43361851348</v>
       </c>
       <c r="AE21">
-        <v>32053.35626792784</v>
+        <v>31504.79685384696</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -3229,94 +3229,94 @@
         <v>45992</v>
       </c>
       <c r="B22">
-        <v>105677.6171875</v>
+        <v>104873.0234375</v>
       </c>
       <c r="C22">
-        <v>114648.7109375</v>
+        <v>114830.734375</v>
       </c>
       <c r="D22">
-        <v>162924.9375</v>
+        <v>162236.109375</v>
       </c>
       <c r="E22">
-        <v>162876.703125</v>
+        <v>162597.671875</v>
       </c>
       <c r="F22">
-        <v>88482.6171875</v>
+        <v>87865.1484375</v>
       </c>
       <c r="G22">
-        <v>92017.5234375</v>
+        <v>91281.6484375</v>
       </c>
       <c r="H22">
-        <v>23040.21875</v>
+        <v>23203.265625</v>
       </c>
       <c r="I22">
-        <v>23676.955078125</v>
+        <v>23414.337890625</v>
       </c>
       <c r="J22">
-        <v>33281.65625</v>
+        <v>33083.5234375</v>
       </c>
       <c r="K22">
-        <v>33178.5703125</v>
+        <v>33629.55078125</v>
       </c>
       <c r="L22">
-        <v>17438.310546875</v>
+        <v>17376.1953125</v>
       </c>
       <c r="M22">
-        <v>18072.466796875</v>
+        <v>17914.064453125</v>
       </c>
       <c r="N22">
-        <v>19225.71875</v>
+        <v>19424.25390625</v>
       </c>
       <c r="O22">
-        <v>21066.1640625</v>
+        <v>21148.255859375</v>
       </c>
       <c r="P22">
-        <v>26532.11328125</v>
+        <v>26371.484375</v>
       </c>
       <c r="Q22">
-        <v>26726.1328125</v>
+        <v>26779.62890625</v>
       </c>
       <c r="R22">
-        <v>16490.126953125</v>
+        <v>16525.6640625</v>
       </c>
       <c r="S22">
-        <v>16946.349609375</v>
+        <v>17301.208984375</v>
       </c>
       <c r="T22">
-        <v>24267.390625</v>
+        <v>24159.640625</v>
       </c>
       <c r="U22">
-        <v>25972.857421875</v>
+        <v>25917.046875</v>
       </c>
       <c r="V22">
-        <v>34855.6484375</v>
+        <v>34485.4609375</v>
       </c>
       <c r="W22">
-        <v>35424.68359375</v>
+        <v>35443.54296875</v>
       </c>
       <c r="X22">
-        <v>18628.52734375</v>
+        <v>18658.24609375</v>
       </c>
       <c r="Y22">
-        <v>19422.5078125</v>
+        <v>19364.96484375</v>
       </c>
       <c r="Z22">
-        <v>33829.1796875</v>
+        <v>33967.4765625</v>
       </c>
       <c r="AA22">
-        <v>34250.28125</v>
+        <v>34624.28515625</v>
       </c>
       <c r="AB22">
-        <v>41388.1015625</v>
+        <v>42212.03515625</v>
       </c>
       <c r="AC22">
-        <v>45618.43359375</v>
+        <v>46626.8203125</v>
       </c>
       <c r="AD22">
-        <v>26304.00523679697</v>
+        <v>26620.83502710138</v>
       </c>
       <c r="AE22">
-        <v>25881.18570141247</v>
+        <v>25955.09584293105</v>
       </c>
     </row>
   </sheetData>
